--- a/data/hotels_by_city/Houston/Houston_shard_119.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_119.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d635088-Reviews-Comfort_Suites_Webster-Webster_Texas.html</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Near-NASA-Clear-Lake.h1590031.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530382842369&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=b5e99110-0c06-4a3d-ba2b-c28bd06d018c&amp;mctc=9&amp;exp_dp=108.3&amp;exp_ts=1530382842846&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1902 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r577298715-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>635088</t>
+  </si>
+  <si>
+    <t>577298715</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was clean, staff was good. Breakfast was really good, plenty to choose from, clean dining room. We chose this property because it was pet friendly and it was close to friends we were visiting for the weekend. There seemed to be plenty of shopping and dining close by. Would definitely stay here again . </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r567911657-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>567911657</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>The Location is excellent for the Space Center - room and breakfast just so-so</t>
+  </si>
+  <si>
+    <t>The location is excellent for the Space Center.  The beds sleep fairly well.  The carpets are clean.  The water pressure in the room is very low so you do not get a good hot shower in the morning.  I talked with the staff regarding this and they tried to adjust it but it was still low.  The staff here is not very friendly outright.  The breakfast is just so so; nothing to brag about.A strange thing happened when I checked in that never happened before at a Comfort Suites.  I made two reservations for a total of 3 nights.  When I arrived at the hotel, they told me I had FOUR reservations and were going to charge me cancellation fees for taking two off.  This cost me a lot of time in aggravation.  I am contacting central reservations to determine the root cause(s). One nice feature is that the room HVAC is digital and easy to set a comfortable temperature. You expect more service when you are paying big money for a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is excellent for the Space Center.  The beds sleep fairly well.  The carpets are clean.  The water pressure in the room is very low so you do not get a good hot shower in the morning.  I talked with the staff regarding this and they tried to adjust it but it was still low.  The staff here is not very friendly outright.  The breakfast is just so so; nothing to brag about.A strange thing happened when I checked in that never happened before at a Comfort Suites.  I made two reservations for a total of 3 nights.  When I arrived at the hotel, they told me I had FOUR reservations and were going to charge me cancellation fees for taking two off.  This cost me a lot of time in aggravation.  I am contacting central reservations to determine the root cause(s). One nice feature is that the room HVAC is digital and easy to set a comfortable temperature. You expect more service when you are paying big money for a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r567904302-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>567904302</t>
+  </si>
+  <si>
+    <t>OK choice</t>
+  </si>
+  <si>
+    <t>This is a spacious and clean hotel in a quiet and convenient location. The breakfast was  just okay; not quite as many options as other locations. The indoor pool is very small and be warned - it is not heated. The hotel staff were not very welcoming; once again - just okay.  Our visit was okay (seems to be the theme here) But i would probably try somewhere else if I was back here again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r526159095-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>526159095</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>The room was clean.  The staff was nice.  The breakfast was just what you would expect in a motel.  It was very close to the hospital I was visiting to see my family member.  It was also quiet and the air conditioner was quiet.  That is in itself unusual in a motel and very much appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Front Office Manager at Comfort Suites Webster, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean.  The staff was nice.  The breakfast was just what you would expect in a motel.  It was very close to the hospital I was visiting to see my family member.  It was also quiet and the air conditioner was quiet.  That is in itself unusual in a motel and very much appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r519090941-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>519090941</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>My trip was almost ruined</t>
+  </si>
+  <si>
+    <t>I booked a room  back in June so that I could attend my granddaughter's graduation.  I had made the reservation for two rooms-one room for my son and one for myself, and we had no problem checking in; however, my husband called me the next morning to tell me that the hotel had charged our card 1200 dollars.  When I called at the desk, I was told that I had booked four rooms-two in my son's name and two in my name.  Because I checked in under my name- I was charged as a no show for the other two rooms-plus the extra hold that had been placed on the rooms.  The receptionist was cool and not at all helpful, so I went to the desk to straighten things out...I thought.  The hotel blamed the third party booking site for the double booking and told us to take it up with them,but they did agree to remove the holding charges...and later removed the extra days-as we had booked for three days.  When we investigated however, it was clearly the hotel at fault.  I had booked the room and made an error-so cancelled right away and rebooked.  The booking site had hard evidence that the first booking had been cancelled-and that notice had been sent to the hotel, but the hotel refused to pay for the first two nights.  Fortunately, we were eventually reimbursed by the booking company, but I will...I booked a room  back in June so that I could attend my granddaughter's graduation.  I had made the reservation for two rooms-one room for my son and one for myself, and we had no problem checking in; however, my husband called me the next morning to tell me that the hotel had charged our card 1200 dollars.  When I called at the desk, I was told that I had booked four rooms-two in my son's name and two in my name.  Because I checked in under my name- I was charged as a no show for the other two rooms-plus the extra hold that had been placed on the rooms.  The receptionist was cool and not at all helpful, so I went to the desk to straighten things out...I thought.  The hotel blamed the third party booking site for the double booking and told us to take it up with them,but they did agree to remove the holding charges...and later removed the extra days-as we had booked for three days.  When we investigated however, it was clearly the hotel at fault.  I had booked the room and made an error-so cancelled right away and rebooked.  The booking site had hard evidence that the first booking had been cancelled-and that notice had been sent to the hotel, but the hotel refused to pay for the first two nights.  Fortunately, we were eventually reimbursed by the booking company, but I will never stay at this hotel again. To be financially strapped over the weekend when we were there to celebrate, put a huge damper on an otherwise joyous occasion.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I booked a room  back in June so that I could attend my granddaughter's graduation.  I had made the reservation for two rooms-one room for my son and one for myself, and we had no problem checking in; however, my husband called me the next morning to tell me that the hotel had charged our card 1200 dollars.  When I called at the desk, I was told that I had booked four rooms-two in my son's name and two in my name.  Because I checked in under my name- I was charged as a no show for the other two rooms-plus the extra hold that had been placed on the rooms.  The receptionist was cool and not at all helpful, so I went to the desk to straighten things out...I thought.  The hotel blamed the third party booking site for the double booking and told us to take it up with them,but they did agree to remove the holding charges...and later removed the extra days-as we had booked for three days.  When we investigated however, it was clearly the hotel at fault.  I had booked the room and made an error-so cancelled right away and rebooked.  The booking site had hard evidence that the first booking had been cancelled-and that notice had been sent to the hotel, but the hotel refused to pay for the first two nights.  Fortunately, we were eventually reimbursed by the booking company, but I will...I booked a room  back in June so that I could attend my granddaughter's graduation.  I had made the reservation for two rooms-one room for my son and one for myself, and we had no problem checking in; however, my husband called me the next morning to tell me that the hotel had charged our card 1200 dollars.  When I called at the desk, I was told that I had booked four rooms-two in my son's name and two in my name.  Because I checked in under my name- I was charged as a no show for the other two rooms-plus the extra hold that had been placed on the rooms.  The receptionist was cool and not at all helpful, so I went to the desk to straighten things out...I thought.  The hotel blamed the third party booking site for the double booking and told us to take it up with them,but they did agree to remove the holding charges...and later removed the extra days-as we had booked for three days.  When we investigated however, it was clearly the hotel at fault.  I had booked the room and made an error-so cancelled right away and rebooked.  The booking site had hard evidence that the first booking had been cancelled-and that notice had been sent to the hotel, but the hotel refused to pay for the first two nights.  Fortunately, we were eventually reimbursed by the booking company, but I will never stay at this hotel again. To be financially strapped over the weekend when we were there to celebrate, put a huge damper on an otherwise joyous occasion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r508880306-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>508880306</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Lobby was nice......</t>
+  </si>
+  <si>
+    <t>The staff was not very accommodating, almost sullen and putout if we asked for anything  and smelled of alcohol!  Hotel seemed kind of old.  It is in a good location for a visit to NASA.  Indoor pool was OK.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r500094010-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>500094010</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We stayed here for a week while my father in law was in hospital. Never got sheets changed, even after requesting a change. I know this because i sat on my ink pen and it marked the sheet. Breakfast was the same thing all week.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a week while my father in law was in hospital. Never got sheets changed, even after requesting a change. I know this because i sat on my ink pen and it marked the sheet. Breakfast was the same thing all week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r477751247-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>477751247</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay the night before a cruise</t>
+  </si>
+  <si>
+    <t>Stayed here twice one night before a cruise out of Galveston. Even though there is a roller skating rink next to it there wasn't any noise from it. Staff friendly and will to help if there is an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Guest Relations Manager at Comfort Suites Webster, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here twice one night before a cruise out of Galveston. Even though there is a roller skating rink next to it there wasn't any noise from it. Staff friendly and will to help if there is an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r475557405-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>475557405</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here the night before leaving for our cruise out of Galveston.  The hotel was clean, comfortable and offered a great breakfast in the morning.  The kids enjoyed the indoor pool.  Easy 30 min drive to Galveston cruise terminal.  Plenty of restaurants in close proximity.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here the night before leaving for our cruise out of Galveston.  The hotel was clean, comfortable and offered a great breakfast in the morning.  The kids enjoyed the indoor pool.  Easy 30 min drive to Galveston cruise terminal.  Plenty of restaurants in close proximity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r468336223-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>468336223</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable stay overall</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights during spring break.  The hotel is good for families. The room was a good size, clean and the staff was attentive and friendly.  The Space Center is not far and there are many restaurants nearby. We found a great park about one block from the hotel, Texas Avenue park. We walked to it and there is a very good playground, baseball fields, picnic table and a slash pad which looks like it is great when open during summer.  The hotel has an indoor pool and hot tub. The kids swam for hpurs and we had ot to ourselves. My only complaint is that the pool water was very cold and did not feel heated to the right temperature for comfort.  The breakfast was decent, about average, but nice considering it was part of the room price which was affordable. Overall very nice. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights during spring break.  The hotel is good for families. The room was a good size, clean and the staff was attentive and friendly.  The Space Center is not far and there are many restaurants nearby. We found a great park about one block from the hotel, Texas Avenue park. We walked to it and there is a very good playground, baseball fields, picnic table and a slash pad which looks like it is great when open during summer.  The hotel has an indoor pool and hot tub. The kids swam for hpurs and we had ot to ourselves. My only complaint is that the pool water was very cold and did not feel heated to the right temperature for comfort.  The breakfast was decent, about average, but nice considering it was part of the room price which was affordable. Overall very nice. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r467916055-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>467916055</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Horrible staff</t>
+  </si>
+  <si>
+    <t>I would've called the police and the management but they wouldn't give me either number. They wanted to charge an extra $600 because we apparently looked like we caused destruction. Then she told me I looked broke and tried to fraud us the $600.MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>I would've called the police and the management but they wouldn't give me either number. They wanted to charge an extra $600 because we apparently looked like we caused destruction. Then she told me I looked broke and tried to fraud us the $600.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r464388164-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>464388164</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>One Person can Make a Difference</t>
+  </si>
+  <si>
+    <t>What would have been a good stay was marred by the rude person working the complimentary breakfast.  We walked in at exactly 10:00 am and over half the items were already picked up by the lady cleaning up.  I asked what time breakfast was over and she said 10:00.  I understand timelines and did not expect her to bring stuff back out.  I asked her to please allow us to eat from what was left.  She was holding a tray of scrambled eggs and threw them in the garbage while we looked on.  I grabbed a plate and served from the eggs and sausage in another tray.  I ran to get yogurt but she had already locked the frig (obviously before 10:00.  Moral of the story - you better get there early or suffer the wrath of the breakfast Nazi.MoreShow less</t>
+  </si>
+  <si>
+    <t>What would have been a good stay was marred by the rude person working the complimentary breakfast.  We walked in at exactly 10:00 am and over half the items were already picked up by the lady cleaning up.  I asked what time breakfast was over and she said 10:00.  I understand timelines and did not expect her to bring stuff back out.  I asked her to please allow us to eat from what was left.  She was holding a tray of scrambled eggs and threw them in the garbage while we looked on.  I grabbed a plate and served from the eggs and sausage in another tray.  I ran to get yogurt but she had already locked the frig (obviously before 10:00.  Moral of the story - you better get there early or suffer the wrath of the breakfast Nazi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r456299637-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>456299637</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Prescribe stay</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel.   Our cruise was delayed a day by fog so we got to spend an extra night.   The hotel is in great shape and is very comfortable.   The front desk staff ladies are awesome!   Only downfall, while the workout equipment looked good, in reality it was not good.   Oh, and this hotel is in a good location for food and entertainment.  New large mall is about half a mile away.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel.   Our cruise was delayed a day by fog so we got to spend an extra night.   The hotel is in great shape and is very comfortable.   The front desk staff ladies are awesome!   Only downfall, while the workout equipment looked good, in reality it was not good.   Oh, and this hotel is in a good location for food and entertainment.  New large mall is about half a mile away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r446793295-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>446793295</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Just a lovely stay!</t>
+  </si>
+  <si>
+    <t>My husband and I with our two small dogs stayed here on Christmas Eve and we really enjoyed our overnight at this hotel. The front desk clerks were personable and showed that the cared about our stay and why were there that night. The overnight manager, I believe, was very helpful and treated our dogs like guests as well. The room was clean, the bed was comfy, and the breakfast was well done. For the price, you couldn't beat it. If we ever pass by that way again, we would definitely return!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r443911860-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>443911860</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Just Average</t>
+  </si>
+  <si>
+    <t>The room was okay and the breakfast was decent. The staff was nice and helpful. The rooms could use some cosmetic work. There were stains on the walls in the bathroom and tub. The bed was very firm, but that is just a personal preference. The pool was decent and I appreciated that it was indoors. No major issues, but also nothing fantastic about the place either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r428404829-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>428404829</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Yummy</t>
+  </si>
+  <si>
+    <t>Wonderful, pleasant, peaceful and safe. Sunday breakfast was yummy. Facility was spotless. Pool was pleasant. Staff very helpful.Everything here for a great nights sleep.Not really sure  what else to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Wonderful, pleasant, peaceful and safe. Sunday breakfast was yummy. Facility was spotless. Pool was pleasant. Staff very helpful.Everything here for a great nights sleep.Not really sure  what else to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r425969094-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>425969094</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Used to be excellent</t>
+  </si>
+  <si>
+    <t>I have stayed here many times over the last ten or twelve years and I guess the place is  beginning to feel its age. The room looked clean but it had an unusual and unpleasant odor. There was also an unwanted and unexpected multi-legged guest int eh room The bed was comfortable and smelled fresh (short people may need a milk stool or ladder to get in the high bed).  Towels were plentiful, large and soft.  Toiletries were just so so  The staff was friendly and expressed genuine concern for the issues I mentioned above.MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Front Office Manager at Comfort Suites Webster, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here many times over the last ten or twelve years and I guess the place is  beginning to feel its age. The room looked clean but it had an unusual and unpleasant odor. There was also an unwanted and unexpected multi-legged guest int eh room The bed was comfortable and smelled fresh (short people may need a milk stool or ladder to get in the high bed).  Towels were plentiful, large and soft.  Toiletries were just so so  The staff was friendly and expressed genuine concern for the issues I mentioned above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r425510285-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>425510285</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Nice Clean room and friendly helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights on our family vacation to the Houston area. I was very pleased with Bryan's help getting my room set up and all the delightful conversation that he and I had. My wife and son enjoyed the Texas shaped waffles. My wife was happy with the cleanliness of the room which is a big compliment. I thought it was a convenient location between Houston, the space center, and Galveston. We will definitely stay here if we get to visit Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Front Office Manager at Comfort Suites Webster, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights on our family vacation to the Houston area. I was very pleased with Bryan's help getting my room set up and all the delightful conversation that he and I had. My wife and son enjoyed the Texas shaped waffles. My wife was happy with the cleanliness of the room which is a big compliment. I thought it was a convenient location between Houston, the space center, and Galveston. We will definitely stay here if we get to visit Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r403449673-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>403449673</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Visit to NASA and Houston</t>
+  </si>
+  <si>
+    <t>Overall a nice clean hotel with large rooms. Friendly and helpful staff, in day and evening.We recommend booking a 3rd floor room as rooms aren't that sound proof so we heard the family above us clear as day.Good location for NASA and although in outskirts of Houston it only took 25mins to drive in.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Guest Relations Manager at Comfort Suites Webster, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Overall a nice clean hotel with large rooms. Friendly and helpful staff, in day and evening.We recommend booking a 3rd floor room as rooms aren't that sound proof so we heard the family above us clear as day.Good location for NASA and although in outskirts of Houston it only took 25mins to drive in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r402858162-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>402858162</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Good location close to hospital</t>
+  </si>
+  <si>
+    <t>My mother came to visit family for her 83rd birthday,we had reserved a handicap  room the day before  we arrived and the customer service that we spoke with did not reserve the room that we ordered which was very important,so overall the amenities were ok some guest were inconsiderate with the noise,but not a good place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>My mother came to visit family for her 83rd birthday,we had reserved a handicap  room the day before  we arrived and the customer service that we spoke with did not reserve the room that we ordered which was very important,so overall the amenities were ok some guest were inconsiderate with the noise,but not a good place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r397697754-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>397697754</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Happy, happy, happy!</t>
+  </si>
+  <si>
+    <t>All around great place to stay....location is wonderful; near wide variety of local attractions; comfy bed; clean; offers wifi; exercise/pool, etc. and, serves a great breakfast.  Would definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>All around great place to stay....location is wonderful; near wide variety of local attractions; comfy bed; clean; offers wifi; exercise/pool, etc. and, serves a great breakfast.  Would definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r380693613-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>380693613</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>The employees were friendly and professional, the grounds were well kept, and lighting at night kept me from worrying about my truck.  The breakfast was excellent.  I asked for directions to a local restaurant and the clerk gave us detailed instructions that were 100% accurate.  Nice place for a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The employees were friendly and professional, the grounds were well kept, and lighting at night kept me from worrying about my truck.  The breakfast was excellent.  I asked for directions to a local restaurant and the clerk gave us detailed instructions that were 100% accurate.  Nice place for a reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r361693522-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>361693522</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The hotel is nice, the staff is very professional. The breakfast was really good. The only gripe was the hotel is pet friendly, we didn't know, we should have researched more. I have allergies and it flared when we stayed here. The hotel was very clean and the beds were comfortable. The hotel is very close to the NASA space center.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel is nice, the staff is very professional. The breakfast was really good. The only gripe was the hotel is pet friendly, we didn't know, we should have researched more. I have allergies and it flared when we stayed here. The hotel was very clean and the beds were comfortable. The hotel is very close to the NASA space center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r356285006-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>356285006</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed here four nights. The staff was very friendly and our room was very clean. The breakfast is good, it is the normal hotel breakfast but everyday they switched up the meat. Sausage patties one day, then sausage links and then bacon. The indoor hot tub was great for relaxing after a long day of sight seeing. The indoor pool is not heated and was very cold so I did not use it. I would have preferred the indoor pool to be heated but it is probably no big deal in the warmer months. The location was close to several restaurants and tourist attractions. My only complaint is that after a few days my back was hurting and I was ready to sleep in my own bed. Not sure if the bed was too firm or what. It seemed fine at first. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here four nights. The staff was very friendly and our room was very clean. The breakfast is good, it is the normal hotel breakfast but everyday they switched up the meat. Sausage patties one day, then sausage links and then bacon. The indoor hot tub was great for relaxing after a long day of sight seeing. The indoor pool is not heated and was very cold so I did not use it. I would have preferred the indoor pool to be heated but it is probably no big deal in the warmer months. The location was close to several restaurants and tourist attractions. My only complaint is that after a few days my back was hurting and I was ready to sleep in my own bed. Not sure if the bed was too firm or what. It seemed fine at first. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r332115334-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>332115334</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Realtor</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night. When we checked in the furniture was all wrapped in plastic wrap against the Windows. It looked weird so I asked about it. He claimed they were remodeling the rooms. We took his word. The room was nice and roomy. We went out with friends and came back late. As we got ready for bed I saw a spot of fresh looking blood on the top sheet at the side of the bed. We considered asking for a room change but it was tiny and on the side. The rest of the bed looked fine. It was a king so we just slept to the other side. Next day I noticed my ankle had a red rash. 
+We checked out and it itched really bad. Upon closer observation there were about 20 bites on just the one ankle. My husband did not have any. On the way home to Austin area  and thought maybe the hotel had bed bugs. I looked it up on my phone. The rash was identical. I saw the bug photo but had not seen a bug there however it said tiny spots of blood are a giveaway. I had seen the blood spot. They also said wrapping furniture in plastic wrap and putting in the sun is a way to kill them on upholstery furniture. Since coming home I did find two bugs in my luggage and was...We stayed at this hotel one night. When we checked in the furniture was all wrapped in plastic wrap against the Windows. It looked weird so I asked about it. He claimed they were remodeling the rooms. We took his word. The room was nice and roomy. We went out with friends and came back late. As we got ready for bed I saw a spot of fresh looking blood on the top sheet at the side of the bed. We considered asking for a room change but it was tiny and on the side. The rest of the bed looked fine. It was a king so we just slept to the other side. Next day I noticed my ankle had a red rash. We checked out and it itched really bad. Upon closer observation there were about 20 bites on just the one ankle. My husband did not have any. On the way home to Austin area  and thought maybe the hotel had bed bugs. I looked it up on my phone. The rash was identical. I saw the bug photo but had not seen a bug there however it said tiny spots of blood are a giveaway. I had seen the blood spot. They also said wrapping furniture in plastic wrap and putting in the sun is a way to kill them on upholstery furniture. Since coming home I did find two bugs in my luggage and was bitten 3 times. I have had to go to great expense to eradicate them. I want others to know about it. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Front Office Manager at Comfort Suites Webster, responded to this reviewResponded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night. When we checked in the furniture was all wrapped in plastic wrap against the Windows. It looked weird so I asked about it. He claimed they were remodeling the rooms. We took his word. The room was nice and roomy. We went out with friends and came back late. As we got ready for bed I saw a spot of fresh looking blood on the top sheet at the side of the bed. We considered asking for a room change but it was tiny and on the side. The rest of the bed looked fine. It was a king so we just slept to the other side. Next day I noticed my ankle had a red rash. 
+We checked out and it itched really bad. Upon closer observation there were about 20 bites on just the one ankle. My husband did not have any. On the way home to Austin area  and thought maybe the hotel had bed bugs. I looked it up on my phone. The rash was identical. I saw the bug photo but had not seen a bug there however it said tiny spots of blood are a giveaway. I had seen the blood spot. They also said wrapping furniture in plastic wrap and putting in the sun is a way to kill them on upholstery furniture. Since coming home I did find two bugs in my luggage and was...We stayed at this hotel one night. When we checked in the furniture was all wrapped in plastic wrap against the Windows. It looked weird so I asked about it. He claimed they were remodeling the rooms. We took his word. The room was nice and roomy. We went out with friends and came back late. As we got ready for bed I saw a spot of fresh looking blood on the top sheet at the side of the bed. We considered asking for a room change but it was tiny and on the side. The rest of the bed looked fine. It was a king so we just slept to the other side. Next day I noticed my ankle had a red rash. We checked out and it itched really bad. Upon closer observation there were about 20 bites on just the one ankle. My husband did not have any. On the way home to Austin area  and thought maybe the hotel had bed bugs. I looked it up on my phone. The rash was identical. I saw the bug photo but had not seen a bug there however it said tiny spots of blood are a giveaway. I had seen the blood spot. They also said wrapping furniture in plastic wrap and putting in the sun is a way to kill them on upholstery furniture. Since coming home I did find two bugs in my luggage and was bitten 3 times. I have had to go to great expense to eradicate them. I want others to know about it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r325253469-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>325253469</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>We spent 2 nights in a king room.  The room size is good; however, even with plenty of counter space in the bathroom we found the layout small - it was hard to close the door without maneuvering around.  Our room was clean when we checked in and also the second night upon our return.  The bed was very comfortable. The shower was good.  Breakfast is your usual hotel fare. Our only complaint is our room constantly smelled musty/mildew.  MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Guest Relations Manager at Comfort Suites Webster, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>We spent 2 nights in a king room.  The room size is good; however, even with plenty of counter space in the bathroom we found the layout small - it was hard to close the door without maneuvering around.  Our room was clean when we checked in and also the second night upon our return.  The bed was very comfortable. The shower was good.  Breakfast is your usual hotel fare. Our only complaint is our room constantly smelled musty/mildew.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r318006650-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>318006650</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel for a Short Stay</t>
+  </si>
+  <si>
+    <t>We stayed here after flying into Houston, Texas and checked into the hotel around 830pm.  He guy at the front desk was super nice and very friendly.  Our room was large and very clean.   We had a king bed and a pull out couch, which worked great for us with our kids.  We were going to the NASA museum the next day, so the location was perfect.   They are doing some remodeling on this hotel in the lobby, but overall, it was very nice and clean.  I used the small gym and it worked great for needing a quick walk on the treadmill.   The breakfast buffet was outstanding.  Probably one of the best hotel breakfast that we have ever had, and we have traveled often.  Check-out was fine and we were charged exactly what we had made our reservation for.   
+My only complaint would not be against this hotel, but the local pizza hut that they recommend.  We ordered pizza from this Pizza Hut (2402 East Bay Area-E, Houston, TX) and the pizza was 45 minutes late and it was COLD!  I spent about 30-45 mins on the phone trying to reach a manager, I finally did and he was VERY rude (Patel was his name).  He told me he had the right to change the time on my pizza delivery and that he would give me $5 back.  I told him the pizza was cold and late and our...We stayed here after flying into Houston, Texas and checked into the hotel around 830pm.  He guy at the front desk was super nice and very friendly.  Our room was large and very clean.   We had a king bed and a pull out couch, which worked great for us with our kids.  We were going to the NASA museum the next day, so the location was perfect.   They are doing some remodeling on this hotel in the lobby, but overall, it was very nice and clean.  I used the small gym and it worked great for needing a quick walk on the treadmill.   The breakfast buffet was outstanding.  Probably one of the best hotel breakfast that we have ever had, and we have traveled often.  Check-out was fine and we were charged exactly what we had made our reservation for.   My only complaint would not be against this hotel, but the local pizza hut that they recommend.  We ordered pizza from this Pizza Hut (2402 East Bay Area-E, Houston, TX) and the pizza was 45 minutes late and it was COLD!  I spent about 30-45 mins on the phone trying to reach a manager, I finally did and he was VERY rude (Patel was his name).  He told me he had the right to change the time on my pizza delivery and that he would give me $5 back.  I told him the pizza was cold and late and our kids were  already in bed.  He said he wanted the pizza back and that he would give me a refund.   I was shocked that a store manager would say they were coming to get their pizza back from a customer!   Needless to say, they never did come to get their cold pizza.  DO NOT order from this Pizza Hut.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here after flying into Houston, Texas and checked into the hotel around 830pm.  He guy at the front desk was super nice and very friendly.  Our room was large and very clean.   We had a king bed and a pull out couch, which worked great for us with our kids.  We were going to the NASA museum the next day, so the location was perfect.   They are doing some remodeling on this hotel in the lobby, but overall, it was very nice and clean.  I used the small gym and it worked great for needing a quick walk on the treadmill.   The breakfast buffet was outstanding.  Probably one of the best hotel breakfast that we have ever had, and we have traveled often.  Check-out was fine and we were charged exactly what we had made our reservation for.   
+My only complaint would not be against this hotel, but the local pizza hut that they recommend.  We ordered pizza from this Pizza Hut (2402 East Bay Area-E, Houston, TX) and the pizza was 45 minutes late and it was COLD!  I spent about 30-45 mins on the phone trying to reach a manager, I finally did and he was VERY rude (Patel was his name).  He told me he had the right to change the time on my pizza delivery and that he would give me $5 back.  I told him the pizza was cold and late and our...We stayed here after flying into Houston, Texas and checked into the hotel around 830pm.  He guy at the front desk was super nice and very friendly.  Our room was large and very clean.   We had a king bed and a pull out couch, which worked great for us with our kids.  We were going to the NASA museum the next day, so the location was perfect.   They are doing some remodeling on this hotel in the lobby, but overall, it was very nice and clean.  I used the small gym and it worked great for needing a quick walk on the treadmill.   The breakfast buffet was outstanding.  Probably one of the best hotel breakfast that we have ever had, and we have traveled often.  Check-out was fine and we were charged exactly what we had made our reservation for.   My only complaint would not be against this hotel, but the local pizza hut that they recommend.  We ordered pizza from this Pizza Hut (2402 East Bay Area-E, Houston, TX) and the pizza was 45 minutes late and it was COLD!  I spent about 30-45 mins on the phone trying to reach a manager, I finally did and he was VERY rude (Patel was his name).  He told me he had the right to change the time on my pizza delivery and that he would give me $5 back.  I told him the pizza was cold and late and our kids were  already in bed.  He said he wanted the pizza back and that he would give me a refund.   I was shocked that a store manager would say they were coming to get their pizza back from a customer!   Needless to say, they never did come to get their cold pizza.  DO NOT order from this Pizza Hut.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r295699499-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>295699499</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Service with an attitude</t>
+  </si>
+  <si>
+    <t>Hotel is close to great shopping ( Tanger Outlets a few miles away in Texas City) and within walking distance to good quality restaurants. Galveston is 30 miles south and enjoyed spending a few days on the beach. Room was average. Traffic on I-45 and in Webster was brutal on the weekends. The disappointment in this hotel was the lack of customer service by the front desk staff. You will not be greeted when you enter the lobby, even if you are the only person in the lobby. Lindsey at the front desk would benefit from some customer service training. The indifference and non welcoming nature of the staff will find me not staying at this hotel again. I'll stay where my business is appreciated. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is close to great shopping ( Tanger Outlets a few miles away in Texas City) and within walking distance to good quality restaurants. Galveston is 30 miles south and enjoyed spending a few days on the beach. Room was average. Traffic on I-45 and in Webster was brutal on the weekends. The disappointment in this hotel was the lack of customer service by the front desk staff. You will not be greeted when you enter the lobby, even if you are the only person in the lobby. Lindsey at the front desk would benefit from some customer service training. The indifference and non welcoming nature of the staff will find me not staying at this hotel again. I'll stay where my business is appreciated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r285106741-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>285106741</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Good Chioice for visiting NASA</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location for visiting nearby attractions, including Nasa Houston.  Our room had a very comfortable bed, but the was no A/C thermostat so the room tended to be either too cool or too warm. If you stay here, ask to avoid a room on the side where the “Fun City” entertainment venue is next door. It was quiet the first night, but very noisy the second night until after midnight. The hotel has a nice indoor pool we used twice.  The breakfast items choices were fairly extensive, if not particularly special. The room included all of the usual amenities, TV, microwave, refrigerator, iron/board, hair dryer, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location for visiting nearby attractions, including Nasa Houston.  Our room had a very comfortable bed, but the was no A/C thermostat so the room tended to be either too cool or too warm. If you stay here, ask to avoid a room on the side where the “Fun City” entertainment venue is next door. It was quiet the first night, but very noisy the second night until after midnight. The hotel has a nice indoor pool we used twice.  The breakfast items choices were fairly extensive, if not particularly special. The room included all of the usual amenities, TV, microwave, refrigerator, iron/board, hair dryer, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r279031783-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>279031783</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This weekend, we stayed at Comfort Suites in Webster, Texas.  We have a family of six and our room was big enough for us all to be comfortable.  Our room was large and very clean.  The entire facility was beautifully decorated.  We were very pleased with the complimentary breakfast.  My children especially enjoyed eating waffles shaped like the state of Texas.  The pool and hot tub was also a big hit with the kiddos.  We also loved the palm trees on the property.  There are many stores and restaurants located near by.  We enjoyed the outlet mall that was a short drive away as well as the beach.  We are so please with out stay and plan to visit this hotel again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This weekend, we stayed at Comfort Suites in Webster, Texas.  We have a family of six and our room was big enough for us all to be comfortable.  Our room was large and very clean.  The entire facility was beautifully decorated.  We were very pleased with the complimentary breakfast.  My children especially enjoyed eating waffles shaped like the state of Texas.  The pool and hot tub was also a big hit with the kiddos.  We also loved the palm trees on the property.  There are many stores and restaurants located near by.  We enjoyed the outlet mall that was a short drive away as well as the beach.  We are so please with out stay and plan to visit this hotel again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r260885095-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>260885095</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Nice, nice, nice but why charge $ 35 extra if you arrive early?</t>
+  </si>
+  <si>
+    <t>I had a very nice stay at this hotel.  After driving for five hours from Laredo, I definitely enjoyed the spacious and comfortable room at the hotel.   The reception staff was nice enough.  However, I must point out, is there a need to charge $ 35 extra if you arrive at 11.00 AM?  I understand check-in time is at 3.00 PM, but if you have the room, why bother with that?  I have gone to plenty of hotels and if they have the room they just give it to you.  Of course since I had gotten up at 6.00 to drive from Laredo I was happy to pay it, but that detail tarnished the experience.Breakfast is wonderful and with many choices and the property is very nice, they have a great laundry room, a great business center and it is next to the post office, which was great for my purposes.  Mr. General Manager, I think you should review this pesky policy of charging $ 35 if you arrive early.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>I had a very nice stay at this hotel.  After driving for five hours from Laredo, I definitely enjoyed the spacious and comfortable room at the hotel.   The reception staff was nice enough.  However, I must point out, is there a need to charge $ 35 extra if you arrive at 11.00 AM?  I understand check-in time is at 3.00 PM, but if you have the room, why bother with that?  I have gone to plenty of hotels and if they have the room they just give it to you.  Of course since I had gotten up at 6.00 to drive from Laredo I was happy to pay it, but that detail tarnished the experience.Breakfast is wonderful and with many choices and the property is very nice, they have a great laundry room, a great business center and it is next to the post office, which was great for my purposes.  Mr. General Manager, I think you should review this pesky policy of charging $ 35 if you arrive early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r259251483-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>259251483</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Avoid this Hotel</t>
+  </si>
+  <si>
+    <t>I have spent a lot on the time on the road over the years. I have been a Choice member for 11 years as well. Even when we go on vacation I prefer Choice Hotels because I can always find a hotel that are clean, reasonably priced with very pleasant and helpful staff. EXCEPT our recent stay in Webster TX. The front clerk was downright hateful. She refused to listen to anything I had to say. She DEMANDED..... DEMANDED to change my Choice Private address. I advised her we have more that one home and I use the address on file because it is the one linked to my bank account. . The other person on staff had to get her to stop. To add insult to injury there was a cockroach on our bathroom. Let me add the biggest one I have ever seen in a hotel. I called the font desk and the guy on staff came in and sprayed. When we went to take a shower we got rusty water out of the faucet. My advice is to stay away form this hotel. Let add too that we had to get someone to open the pool as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I have spent a lot on the time on the road over the years. I have been a Choice member for 11 years as well. Even when we go on vacation I prefer Choice Hotels because I can always find a hotel that are clean, reasonably priced with very pleasant and helpful staff. EXCEPT our recent stay in Webster TX. The front clerk was downright hateful. She refused to listen to anything I had to say. She DEMANDED..... DEMANDED to change my Choice Private address. I advised her we have more that one home and I use the address on file because it is the one linked to my bank account. . The other person on staff had to get her to stop. To add insult to injury there was a cockroach on our bathroom. Let me add the biggest one I have ever seen in a hotel. I called the font desk and the guy on staff came in and sprayed. When we went to take a shower we got rusty water out of the faucet. My advice is to stay away form this hotel. Let add too that we had to get someone to open the pool as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r258764575-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>258764575</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Okay place, wouldn't be my first choice though</t>
+  </si>
+  <si>
+    <t>It's not that bad of a hotel, but to me, if you're gonna pay 100+ on a weekend or close to 100 on a weekday, just go to the holiday inn. It's in a better location not next to an old bowling alley with a bunch of questionable people outside.. Also decor is not very tasteful in my opinion... The carpet is a disaster... Like I said overall I would just spend 5 bucks more and go to one of the holiday inns..MoreShow less</t>
+  </si>
+  <si>
+    <t>It's not that bad of a hotel, but to me, if you're gonna pay 100+ on a weekend or close to 100 on a weekday, just go to the holiday inn. It's in a better location not next to an old bowling alley with a bunch of questionable people outside.. Also decor is not very tasteful in my opinion... The carpet is a disaster... Like I said overall I would just spend 5 bucks more and go to one of the holiday inns..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r251476364-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>251476364</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>First time Texas visit from New York</t>
+  </si>
+  <si>
+    <t>My overall stay here was excellent. Staff were pleasant and attentive especially Kimberly. Comfortable bed, clean sheets, clean room, and clean hotel period. Great room rates. I would definitely stay here in the near future. See you soon, Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>My overall stay here was excellent. Staff were pleasant and attentive especially Kimberly. Comfortable bed, clean sheets, clean room, and clean hotel period. Great room rates. I would definitely stay here in the near future. See you soon, Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r245254004-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>245254004</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Room - Convenient Location</t>
+  </si>
+  <si>
+    <t>Our room was large with an additional sofa and a nice size bench to lay out luggage.  The room was clean, quiet, and well appointed with comfortable beds and bedding.  The hotel was conveniently located right off I-45 and within10 minutes to Johnson Space Center.  BayBrook Mall was across the interstate and a lot of good restaurants in close vicinity.  Would definitely recommend this hotel if you are visiting this area southeast of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Front Office Manager at Comfort Suites Webster, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Our room was large with an additional sofa and a nice size bench to lay out luggage.  The room was clean, quiet, and well appointed with comfortable beds and bedding.  The hotel was conveniently located right off I-45 and within10 minutes to Johnson Space Center.  BayBrook Mall was across the interstate and a lot of good restaurants in close vicinity.  Would definitely recommend this hotel if you are visiting this area southeast of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r243944342-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>243944342</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Check In as a guest, leave as a friend</t>
+  </si>
+  <si>
+    <t>My husband and I are traveling across the country and came to see Johnson Space Center and were fortunate to check into this hotel. The hotel room was lovely. The front desk ladies, Kimberly and Adriana were fantastic, friendly and very helpful and sociable. The bed was perfect. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I are traveling across the country and came to see Johnson Space Center and were fortunate to check into this hotel. The hotel room was lovely. The front desk ladies, Kimberly and Adriana were fantastic, friendly and very helpful and sociable. The bed was perfect. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r236782421-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>236782421</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel was booked for wedding guests.  You would think the management would consider service over "policy."  We were told that rooms were ready, but it was policy that you couldn't check in early unless you paid an hourly fee.  The same when we asked for a late checkout, because of the wedding.  We were given one hour free, but another hour was a fee, due to policy.  It didn't matter that the hotel was about 1/2 full over the weekend.  One employee was so gracious and wanted to help us, but "policy" by the management was the rule.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was booked for wedding guests.  You would think the management would consider service over "policy."  We were told that rooms were ready, but it was policy that you couldn't check in early unless you paid an hourly fee.  The same when we asked for a late checkout, because of the wedding.  We were given one hour free, but another hour was a fee, due to policy.  It didn't matter that the hotel was about 1/2 full over the weekend.  One employee was so gracious and wanted to help us, but "policy" by the management was the rule.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r236631704-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>236631704</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and They Take Pets</t>
+  </si>
+  <si>
+    <t>There are not many options for hotels in the Webster/NASA area if you have a pet, so we booked this hotel because they were less expensive than the others. When you make the reservations, you need to tell them you have a pet (under 50 lbs) so that they can give you a pet room. The cost is $10 per night more than the room rate ($50 if you have a pet in a regular room). This was much less than the $75 charge at other hotels. We were not expecting much for our one night stay, but we were pleasantly surprised. The hotel seems new and the lobby and rooms were very nice.We also had a wonderful experience with the front desk person (Moses) and he was super fast and very helpful. When we got into the room (pet rooms are on the first floor), it was clean and did not smell at all, and the room and bathroom were as nice as any Hampton Inn. The bed was very comfortable. The only thing I would suggest is that they buy all new bath towels - the ones they have are like sandpaper.The breakfast was good and the hotel is in a very convenient area. We will stay here again the next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are not many options for hotels in the Webster/NASA area if you have a pet, so we booked this hotel because they were less expensive than the others. When you make the reservations, you need to tell them you have a pet (under 50 lbs) so that they can give you a pet room. The cost is $10 per night more than the room rate ($50 if you have a pet in a regular room). This was much less than the $75 charge at other hotels. We were not expecting much for our one night stay, but we were pleasantly surprised. The hotel seems new and the lobby and rooms were very nice.We also had a wonderful experience with the front desk person (Moses) and he was super fast and very helpful. When we got into the room (pet rooms are on the first floor), it was clean and did not smell at all, and the room and bathroom were as nice as any Hampton Inn. The bed was very comfortable. The only thing I would suggest is that they buy all new bath towels - the ones they have are like sandpaper.The breakfast was good and the hotel is in a very convenient area. We will stay here again the next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r235801237-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>235801237</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Rude employees with attitudes</t>
+  </si>
+  <si>
+    <t>The front desk employees are the worst. The rooms have weird decor. The beds are horrible and the air conditioner could not keep the room cool. The breakfast was the pits. The information in the rooms and the websites state one time for breakfast and checkout but they claim a different time. The property lacks any security what so ever. Strange people hanging around outside. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The front desk employees are the worst. The rooms have weird decor. The beds are horrible and the air conditioner could not keep the room cool. The breakfast was the pits. The information in the rooms and the websites state one time for breakfast and checkout but they claim a different time. The property lacks any security what so ever. Strange people hanging around outside. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r212020766-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>212020766</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay At This Comfort Suite</t>
+  </si>
+  <si>
+    <t>Easy check-in, friendly staff, room clean and well maintained, comfortable bed with clean linens, good breakfast the next morning,and a reasonable price, what more could I ask?I recommend this Comforts Suites for anyone visiting the area.StanFromBryan</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r211574131-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>211574131</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>TravelerFromDallas</t>
+  </si>
+  <si>
+    <t>This is our second time staying there. Both experiences were nothing but great. Nice rooms, indoor pool facility, really good breakfast all for very reasonable price. Plus the staff was extremely helpful. We will stay there again whenever we decide to go back to Houston area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r211336833-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>211336833</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay</t>
+  </si>
+  <si>
+    <t>Very accommodating staff, nice room, and excellent breakfast.  And fair price too.I enjoyed my stay and will stay here again next time I'm in the area. I recommend this place to everyone who wants a pleasant clean stay in the Webster area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r208058037-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>208058037</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>It was okay, but I’d pick one of the many other hotels next time.  Please replace the common-area carpets.</t>
+  </si>
+  <si>
+    <t>My family of five stayed three nights over Memorial Day weekend.  We chose this hotel based on price, good reviews, and availability of suites large enough for all of us.
+First impression was great.  The lobby is spacious and welcoming.  The woman who checked us in was friendly, and let us check in 2-3 hours before the 3:00 check-in time.  This was much appreciated after a morning of air travel with young children.
+The room was fine and seemed clean.  The beds were soft and we all slept as well as we do at home.  The room had a multi-port hub with USB inputs for charging electronics, which was convenient.  The bathroom layout was a little tight, with the bathroom door swinging open to block access to the bathtub, which made it difficult to bathe young children.  The room was showing signs of wear, with some peeling paint on the ceiling and some of the caulk separating from the joints.  Overall, I had no problems with having my family stay in the room.
+There are some things about this hotel that need attention.  The carpets in the halls and especially in the breakfast area are heavily stained and need replaced.  I was a little disgusted as I checked out and noticed that the housekeeping staff would stack the “clean” linens on the gross floor outside of the room that they were about to clean.  
+The breakfast was good but nothing...My family of five stayed three nights over Memorial Day weekend.  We chose this hotel based on price, good reviews, and availability of suites large enough for all of us.First impression was great.  The lobby is spacious and welcoming.  The woman who checked us in was friendly, and let us check in 2-3 hours before the 3:00 check-in time.  This was much appreciated after a morning of air travel with young children.The room was fine and seemed clean.  The beds were soft and we all slept as well as we do at home.  The room had a multi-port hub with USB inputs for charging electronics, which was convenient.  The bathroom layout was a little tight, with the bathroom door swinging open to block access to the bathtub, which made it difficult to bathe young children.  The room was showing signs of wear, with some peeling paint on the ceiling and some of the caulk separating from the joints.  Overall, I had no problems with having my family stay in the room.There are some things about this hotel that need attention.  The carpets in the halls and especially in the breakfast area are heavily stained and need replaced.  I was a little disgusted as I checked out and noticed that the housekeeping staff would stack the “clean” linens on the gross floor outside of the room that they were about to clean.  The breakfast was good but nothing special.  It was exactly what I expected from this class of hotel and we ate to satisfaction each morning.  Breakfast seating was adequate, but included a couple of leather couches, which over the years had been spilled on and were stained and gross looking.  The carpet in front of them was especially nasty and could have passed for a Jackson Pollock work.The location was good.  It was in a decent area and was close to NASA.  It was also close to the freeway, so it was about 35 minutes south to Galveston.  The one blemish about the location was that it was next to a run-down skating rink, and the clientele that comes with it.  There was a Wal Mart and other stores within a few minutes for any necessities you needed to buy.The pool was a little chilly, but I don’t think there was any problem with it.  It’s just not heated.  Fortunately, other reviewers prepared me for it.  On the other hand, the hot tub seemed like liquid hot magma.I don’t have a lot of great things to say about the service.  There was a man (Raj?) walking around when we checked in and he seemed to be keeping a watchful eye on things.  We didn’t see him after the first day, and service seemed relaxed after that.  One night I went to the front desk to ask for some quarters for the laundry.  I asked  how much it cost for the machines, and the girl working said she was the wrong person to ask about that.  I wasn’t sure if she wanted me to track down another employee, or start knocking on doors and asking other guests if they could help.  A simple “I’m sorry, but I’m not sure” would have been less unimpressive.  When I got to the laundry room, I found that one of the two washers and one of the two dryers were out of order and appeared to have been so for a while.  As with almost every other time I went to the front desk, I felt like I was intruding on whatever important thing they were doing on their smart phones.  Also of note, on Friday afternoon some family put a dirty diaper in the trash can on the second floor stairway.  By Monday, the trash had not yet crested the top of the can, which must be why it had not yet been dumped.  The smell was getting worse by the day.  I hope for other guests’ sakes that it has been dumped by now. (Spoiler alert:  It was my family and that’s how I know how long it was there.  Sorry, we thought the trash would be dumped more often)Overall, it wasn’t a terrible stay, but reading over this review I am disturbed by the frequency of the words “gross” ,“disgusted”, and “nasty”.   I think this hotel just needs a cosmetic refresh and some hospitality training for the otherwise nice staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Manager at Comfort Suites Webster, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>My family of five stayed three nights over Memorial Day weekend.  We chose this hotel based on price, good reviews, and availability of suites large enough for all of us.
+First impression was great.  The lobby is spacious and welcoming.  The woman who checked us in was friendly, and let us check in 2-3 hours before the 3:00 check-in time.  This was much appreciated after a morning of air travel with young children.
+The room was fine and seemed clean.  The beds were soft and we all slept as well as we do at home.  The room had a multi-port hub with USB inputs for charging electronics, which was convenient.  The bathroom layout was a little tight, with the bathroom door swinging open to block access to the bathtub, which made it difficult to bathe young children.  The room was showing signs of wear, with some peeling paint on the ceiling and some of the caulk separating from the joints.  Overall, I had no problems with having my family stay in the room.
+There are some things about this hotel that need attention.  The carpets in the halls and especially in the breakfast area are heavily stained and need replaced.  I was a little disgusted as I checked out and noticed that the housekeeping staff would stack the “clean” linens on the gross floor outside of the room that they were about to clean.  
+The breakfast was good but nothing...My family of five stayed three nights over Memorial Day weekend.  We chose this hotel based on price, good reviews, and availability of suites large enough for all of us.First impression was great.  The lobby is spacious and welcoming.  The woman who checked us in was friendly, and let us check in 2-3 hours before the 3:00 check-in time.  This was much appreciated after a morning of air travel with young children.The room was fine and seemed clean.  The beds were soft and we all slept as well as we do at home.  The room had a multi-port hub with USB inputs for charging electronics, which was convenient.  The bathroom layout was a little tight, with the bathroom door swinging open to block access to the bathtub, which made it difficult to bathe young children.  The room was showing signs of wear, with some peeling paint on the ceiling and some of the caulk separating from the joints.  Overall, I had no problems with having my family stay in the room.There are some things about this hotel that need attention.  The carpets in the halls and especially in the breakfast area are heavily stained and need replaced.  I was a little disgusted as I checked out and noticed that the housekeeping staff would stack the “clean” linens on the gross floor outside of the room that they were about to clean.  The breakfast was good but nothing special.  It was exactly what I expected from this class of hotel and we ate to satisfaction each morning.  Breakfast seating was adequate, but included a couple of leather couches, which over the years had been spilled on and were stained and gross looking.  The carpet in front of them was especially nasty and could have passed for a Jackson Pollock work.The location was good.  It was in a decent area and was close to NASA.  It was also close to the freeway, so it was about 35 minutes south to Galveston.  The one blemish about the location was that it was next to a run-down skating rink, and the clientele that comes with it.  There was a Wal Mart and other stores within a few minutes for any necessities you needed to buy.The pool was a little chilly, but I don’t think there was any problem with it.  It’s just not heated.  Fortunately, other reviewers prepared me for it.  On the other hand, the hot tub seemed like liquid hot magma.I don’t have a lot of great things to say about the service.  There was a man (Raj?) walking around when we checked in and he seemed to be keeping a watchful eye on things.  We didn’t see him after the first day, and service seemed relaxed after that.  One night I went to the front desk to ask for some quarters for the laundry.  I asked  how much it cost for the machines, and the girl working said she was the wrong person to ask about that.  I wasn’t sure if she wanted me to track down another employee, or start knocking on doors and asking other guests if they could help.  A simple “I’m sorry, but I’m not sure” would have been less unimpressive.  When I got to the laundry room, I found that one of the two washers and one of the two dryers were out of order and appeared to have been so for a while.  As with almost every other time I went to the front desk, I felt like I was intruding on whatever important thing they were doing on their smart phones.  Also of note, on Friday afternoon some family put a dirty diaper in the trash can on the second floor stairway.  By Monday, the trash had not yet crested the top of the can, which must be why it had not yet been dumped.  The smell was getting worse by the day.  I hope for other guests’ sakes that it has been dumped by now. (Spoiler alert:  It was my family and that’s how I know how long it was there.  Sorry, we thought the trash would be dumped more often)Overall, it wasn’t a terrible stay, but reading over this review I am disturbed by the frequency of the words “gross” ,“disgusted”, and “nasty”.   I think this hotel just needs a cosmetic refresh and some hospitality training for the otherwise nice staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r202821611-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>202821611</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>It's OK but only stayed cause of the indoor pool &amp; hot tub..</t>
+  </si>
+  <si>
+    <t>My friends &amp; I stayed there for a few days to get away from everyday life.. at first everything was great (we got a hot tub room) &amp; the room was clean the bed comfy but soon as check out time came the phone started ringing off the hook.. I ended up having a seizure in the bed &amp; accidently peed in it &amp; they charged my credit card $100 just for having an accident.. so I'd say great on everything else BUT sympathy for another human being..!! Definitely won't be staying another 3 nights there!! I'll find another hotel that has an indoor pool &amp; hot tub &amp; also the fitness center does not stay open all night... they close it down same time as they close the pool @ 10pm!! What a crock!! Please spend your $$ somewhere else!! Like the Hiltons across the street which has all the same things indoor hot tub &amp; HEATED POOL! ! Unlike this hotel the pool is cold as h*ll.. thanks but no thanks :) xoxo hope I helped u pick your hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My friends &amp; I stayed there for a few days to get away from everyday life.. at first everything was great (we got a hot tub room) &amp; the room was clean the bed comfy but soon as check out time came the phone started ringing off the hook.. I ended up having a seizure in the bed &amp; accidently peed in it &amp; they charged my credit card $100 just for having an accident.. so I'd say great on everything else BUT sympathy for another human being..!! Definitely won't be staying another 3 nights there!! I'll find another hotel that has an indoor pool &amp; hot tub &amp; also the fitness center does not stay open all night... they close it down same time as they close the pool @ 10pm!! What a crock!! Please spend your $$ somewhere else!! Like the Hiltons across the street which has all the same things indoor hot tub &amp; HEATED POOL! ! Unlike this hotel the pool is cold as h*ll.. thanks but no thanks :) xoxo hope I helped u pick your hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r202469256-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>202469256</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Fine for a one night stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to visit the Space Center. The property had some visible wear and tear, but our bed was newer and very comfortable. The breakfast was mediocre at best. Lots of chain food options around, so very easy with a family. Just a short drive to NASA, too. MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Manager at Comfort Suites Webster, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to visit the Space Center. The property had some visible wear and tear, but our bed was newer and very comfortable. The breakfast was mediocre at best. Lots of chain food options around, so very easy with a family. Just a short drive to NASA, too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r196779943-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>196779943</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Comfort Suites are very comfy!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one day prior to a cruise.   The suite rooms are huge with a king size bed, a large sitting area (love seat with sleeper), microwave, fridge, and large closet.  The bath was standard size, but the room was 22 strides to walk across.  The 'free' breakfast had hot scrambled eggs, sausage, make your own waffles, and hot gravy/biscuits.   Other breakfast items were there:  cereal, fruit, yogurt, coffee, milk, juice, etc.   The lobby and breakfast area was lovely, large, and sunny.   Hotel and room were clean except for one minor error - left over coffee grounds in coffee maker.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one day prior to a cruise.   The suite rooms are huge with a king size bed, a large sitting area (love seat with sleeper), microwave, fridge, and large closet.  The bath was standard size, but the room was 22 strides to walk across.  The 'free' breakfast had hot scrambled eggs, sausage, make your own waffles, and hot gravy/biscuits.   Other breakfast items were there:  cereal, fruit, yogurt, coffee, milk, juice, etc.   The lobby and breakfast area was lovely, large, and sunny.   Hotel and room were clean except for one minor error - left over coffee grounds in coffee maker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r194049374-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>194049374</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Great overnight accomodations</t>
+  </si>
+  <si>
+    <t>This hotel has clean roomy suites.  Receptionists (especially evening shift) was extremely helpful.  Excellent breakfast and nice assortment of snacks.  Would definitely stay there again.  Hotel is very close to the NASA space attraction.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r193825481-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>193825481</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Vacation stay</t>
+  </si>
+  <si>
+    <t>The gal at the check in Juana was very helpful and fun.  We enjoyed our stay the room was fresh, beds, great.  Pool could have been a little warmer.  We were new to Texas and they were helpful with ideas and directions.  They were willing to talk to us and asked what they could do for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, Manager at Comfort Suites Webster, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>The gal at the check in Juana was very helpful and fun.  We enjoyed our stay the room was fresh, beds, great.  Pool could have been a little warmer.  We were new to Texas and they were helpful with ideas and directions.  They were willing to talk to us and asked what they could do for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r188504601-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>188504601</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Nice and inexpensive</t>
+  </si>
+  <si>
+    <t>We stayed here one night in December before boarding a ship in Galveston.  We found the hotel to be clean and actually quite nice.  The internet is a bit slow like a lot of hotels but it did work well.  They have wired internet in the rooms as well as WiFi.  Breakfast was a step above the usual cereal and donuts with waffles, scrambled eggs and sausage among other offerings.  The best part of this hotel is it is light and very relaxing.  It is one block off the main road so it is quiet.  We will definitely stay there again.  We like the Webster/NASA area because of the many restaurants, hotels and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We stayed here one night in December before boarding a ship in Galveston.  We found the hotel to be clean and actually quite nice.  The internet is a bit slow like a lot of hotels but it did work well.  They have wired internet in the rooms as well as WiFi.  Breakfast was a step above the usual cereal and donuts with waffles, scrambled eggs and sausage among other offerings.  The best part of this hotel is it is light and very relaxing.  It is one block off the main road so it is quiet.  We will definitely stay there again.  We like the Webster/NASA area because of the many restaurants, hotels and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r185410011-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>185410011</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Tonya A</t>
+  </si>
+  <si>
+    <t>Most enjoyable hotel stay I've expereinced.  Great accomdations, great breakfast, and Tonya was the most pleaseant and gracious host I have experienced.  In all future travels Comfort Suites will be my choice and hopefully they will all have someone like Tonya in charge!Joe and Wanda Bonura - Beaumont TX</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r183530345-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>183530345</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Peace and Quiet</t>
+  </si>
+  <si>
+    <t>This was a last minute booking (1 week) for the Texas Lone Star Bike Rally event in Galveston TX. I had to do research. Galveston island hotel/motels were pretty much booked, plus any rooms I did find were disappointingly over priced at $300+plus a night, typical price gouging for the event. 
+I went to my trusty Choice hotels and found this hotel Comfort Suites at the price I wanted at $100 a night, 30 minutes away from the Bike Rally event, just off IH45 near the NASA/Kemah area.
+Our 2nd floor room was spacious and clean with everything we needed. Super comfortable bed, small pillows :\, Refrig, coffee maker, micro, large bathroom w/ strong water pressure and plus a sofa sleeper (we did not need).
+The hot/cold breakfast and large selection of items to eat, waffles, cereal, breads, oatmeal, Eggs w/ (sausage 1st day, bangers 2nd day) Biscuits &amp; hot gravy, Coffees &amp; juices; all hit the spot in the morning (6-10am). 
+Very nice and pleasant AM /PM front deck clerks. Thank you.
+After two great nights sleep, I realized that if we booked any rooms on Galveston island during the bike rally that we all might NOT have slept. The all night noisy motorcycle pipes, loud music from every direction and loud talking rowdy drunks and drama queens coming and going, in and out of rooms at all hours. With over 400 thousand motorcycles in one area this weekend,...This was a last minute booking (1 week) for the Texas Lone Star Bike Rally event in Galveston TX. I had to do research. Galveston island hotel/motels were pretty much booked, plus any rooms I did find were disappointingly over priced at $300+plus a night, typical price gouging for the event. I went to my trusty Choice hotels and found this hotel Comfort Suites at the price I wanted at $100 a night, 30 minutes away from the Bike Rally event, just off IH45 near the NASA/Kemah area.Our 2nd floor room was spacious and clean with everything we needed. Super comfortable bed, small pillows :\, Refrig, coffee maker, micro, large bathroom w/ strong water pressure and plus a sofa sleeper (we did not need).The hot/cold breakfast and large selection of items to eat, waffles, cereal, breads, oatmeal, Eggs w/ (sausage 1st day, bangers 2nd day) Biscuits &amp; hot gravy, Coffees &amp; juices; all hit the spot in the morning (6-10am). Very nice and pleasant AM /PM front deck clerks. Thank you.After two great nights sleep, I realized that if we booked any rooms on Galveston island during the bike rally that we all might NOT have slept. The all night noisy motorcycle pipes, loud music from every direction and loud talking rowdy drunks and drama queens coming and going, in and out of rooms at all hours. With over 400 thousand motorcycles in one area this weekend, we and every driver/rider has to be responsible, alert and safe.  Sadly the Only low point was the pool/spa was not open while we were in the hotel, (10am-10pm) which would have been great to used; after riding a motorcycle all day a hot soaking in the whirlpool and a refreshing dip in the indoor pool would have been grand.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a last minute booking (1 week) for the Texas Lone Star Bike Rally event in Galveston TX. I had to do research. Galveston island hotel/motels were pretty much booked, plus any rooms I did find were disappointingly over priced at $300+plus a night, typical price gouging for the event. 
+I went to my trusty Choice hotels and found this hotel Comfort Suites at the price I wanted at $100 a night, 30 minutes away from the Bike Rally event, just off IH45 near the NASA/Kemah area.
+Our 2nd floor room was spacious and clean with everything we needed. Super comfortable bed, small pillows :\, Refrig, coffee maker, micro, large bathroom w/ strong water pressure and plus a sofa sleeper (we did not need).
+The hot/cold breakfast and large selection of items to eat, waffles, cereal, breads, oatmeal, Eggs w/ (sausage 1st day, bangers 2nd day) Biscuits &amp; hot gravy, Coffees &amp; juices; all hit the spot in the morning (6-10am). 
+Very nice and pleasant AM /PM front deck clerks. Thank you.
+After two great nights sleep, I realized that if we booked any rooms on Galveston island during the bike rally that we all might NOT have slept. The all night noisy motorcycle pipes, loud music from every direction and loud talking rowdy drunks and drama queens coming and going, in and out of rooms at all hours. With over 400 thousand motorcycles in one area this weekend,...This was a last minute booking (1 week) for the Texas Lone Star Bike Rally event in Galveston TX. I had to do research. Galveston island hotel/motels were pretty much booked, plus any rooms I did find were disappointingly over priced at $300+plus a night, typical price gouging for the event. I went to my trusty Choice hotels and found this hotel Comfort Suites at the price I wanted at $100 a night, 30 minutes away from the Bike Rally event, just off IH45 near the NASA/Kemah area.Our 2nd floor room was spacious and clean with everything we needed. Super comfortable bed, small pillows :\, Refrig, coffee maker, micro, large bathroom w/ strong water pressure and plus a sofa sleeper (we did not need).The hot/cold breakfast and large selection of items to eat, waffles, cereal, breads, oatmeal, Eggs w/ (sausage 1st day, bangers 2nd day) Biscuits &amp; hot gravy, Coffees &amp; juices; all hit the spot in the morning (6-10am). Very nice and pleasant AM /PM front deck clerks. Thank you.After two great nights sleep, I realized that if we booked any rooms on Galveston island during the bike rally that we all might NOT have slept. The all night noisy motorcycle pipes, loud music from every direction and loud talking rowdy drunks and drama queens coming and going, in and out of rooms at all hours. With over 400 thousand motorcycles in one area this weekend, we and every driver/rider has to be responsible, alert and safe.  Sadly the Only low point was the pool/spa was not open while we were in the hotel, (10am-10pm) which would have been great to used; after riding a motorcycle all day a hot soaking in the whirlpool and a refreshing dip in the indoor pool would have been grand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r172134860-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>172134860</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>An affordable family friendly choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good value. Breakfast was good and rooms updated. Indoor pool and not outside pool. Not in the middle of it all so quiet but close to all. Elevator was slow but stairs easy to climb in 3 story building.  Front desk staff always friendly and helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r170775144-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>170775144</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Great staff very friendly and accommodating. The rates are very reasonable</t>
+  </si>
+  <si>
+    <t>Great!!! Close to shopping, easy access from highway, close to restaurants.  Tonya was very friendly and easy to work with! !!! Rooms were clean and very spacious.  Friendly staff to work with. I had a group of 60 and out rooms were ready when we arrived and the mtg room was set up timely</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r170355238-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>170355238</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Our room was previously rented to someone else</t>
+  </si>
+  <si>
+    <t>When we arrived at the hotel, we were informed that the elevator was broken and we were placed on the third floor in a room for a person with a physical handicap (why on the third floor?).  After being in our room for a short time, there was a knock on the door from someone claiming to have the room. We chalked it up to mistake on his part. When the second person arrived and said he had belongings in our room, we went to the front desk. We learned that the management had moved the other person's belongings without notification (despite being told they would have the same room for the entirety of their stay). The individuals were not contacted because they had an international phone number. The manger was not helpful but very rude to the individual whose belongings were moved and to my husband who tried to explain our concern with safety in his establishment. The front desk person was kind but was not able to do anything to help the situation. The police were called because belongings were moved and it was questionable whether items were missing. If we had been scheduled to stay more than one night, we would have left. The family whose belongings were moved were visiting the US for the first time.  I hope they don't judge all Americans by the rude tone and actions of this manager (he actually hung up...When we arrived at the hotel, we were informed that the elevator was broken and we were placed on the third floor in a room for a person with a physical handicap (why on the third floor?).  After being in our room for a short time, there was a knock on the door from someone claiming to have the room. We chalked it up to mistake on his part. When the second person arrived and said he had belongings in our room, we went to the front desk. We learned that the management had moved the other person's belongings without notification (despite being told they would have the same room for the entirety of their stay). The individuals were not contacted because they had an international phone number. The manger was not helpful but very rude to the individual whose belongings were moved and to my husband who tried to explain our concern with safety in his establishment. The front desk person was kind but was not able to do anything to help the situation. The police were called because belongings were moved and it was questionable whether items were missing. If we had been scheduled to stay more than one night, we would have left. The family whose belongings were moved were visiting the US for the first time.  I hope they don't judge all Americans by the rude tone and actions of this manager (he actually hung up the phone on the gentleman and was terse and irate with my husband for suggesting he should assist in this situation). All the time we are wondering...why did they move this family instead of just placing us in the room they moved them to?  Seems like poor management to me.Our room also had a cheap carpet deodorizer smell, which was very strong and irritating.We will certainly not be staying in this hotel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>When we arrived at the hotel, we were informed that the elevator was broken and we were placed on the third floor in a room for a person with a physical handicap (why on the third floor?).  After being in our room for a short time, there was a knock on the door from someone claiming to have the room. We chalked it up to mistake on his part. When the second person arrived and said he had belongings in our room, we went to the front desk. We learned that the management had moved the other person's belongings without notification (despite being told they would have the same room for the entirety of their stay). The individuals were not contacted because they had an international phone number. The manger was not helpful but very rude to the individual whose belongings were moved and to my husband who tried to explain our concern with safety in his establishment. The front desk person was kind but was not able to do anything to help the situation. The police were called because belongings were moved and it was questionable whether items were missing. If we had been scheduled to stay more than one night, we would have left. The family whose belongings were moved were visiting the US for the first time.  I hope they don't judge all Americans by the rude tone and actions of this manager (he actually hung up...When we arrived at the hotel, we were informed that the elevator was broken and we were placed on the third floor in a room for a person with a physical handicap (why on the third floor?).  After being in our room for a short time, there was a knock on the door from someone claiming to have the room. We chalked it up to mistake on his part. When the second person arrived and said he had belongings in our room, we went to the front desk. We learned that the management had moved the other person's belongings without notification (despite being told they would have the same room for the entirety of their stay). The individuals were not contacted because they had an international phone number. The manger was not helpful but very rude to the individual whose belongings were moved and to my husband who tried to explain our concern with safety in his establishment. The front desk person was kind but was not able to do anything to help the situation. The police were called because belongings were moved and it was questionable whether items were missing. If we had been scheduled to stay more than one night, we would have left. The family whose belongings were moved were visiting the US for the first time.  I hope they don't judge all Americans by the rude tone and actions of this manager (he actually hung up the phone on the gentleman and was terse and irate with my husband for suggesting he should assist in this situation). All the time we are wondering...why did they move this family instead of just placing us in the room they moved them to?  Seems like poor management to me.Our room also had a cheap carpet deodorizer smell, which was very strong and irritating.We will certainly not be staying in this hotel ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r168217304-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>168217304</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>decent hotel, rude manager</t>
+  </si>
+  <si>
+    <t>The hotel was clean, breakfast okay, very busy when we were there and understaffed -- often had to wait at the front desk, only one employee working.  The front desk was very nice and helpful.  My problem was really that I accidentally left an item behind.  I realized it several hours after we left, so I called and requested that it be mailed to my home address and was told that it would be.  Two weeks later when I made it home and the item had not, I called and requested it be mailed to me.  After a couple of phone calls it was properly identified and I was told once again that it would be mailed to me -- which it still hasn't.  I called again today...at this point a little irritated and requested to speak to the manager, which he wouldn't do at first.  This time the employee requested to charge the shipping charges to my card and when I said no, I thought at this time it should be done as a courtesy the manager finally got on the phone.  He was brusk, unapologetic for never sending the item or calling me back ('it was not his fault he never got the message') and said he would definitely not pay the shipping charges for the item (and I don't trust him to charge me fairly to ship the item).  I told him I would complain to Choice...The hotel was clean, breakfast okay, very busy when we were there and understaffed -- often had to wait at the front desk, only one employee working.  The front desk was very nice and helpful.  My problem was really that I accidentally left an item behind.  I realized it several hours after we left, so I called and requested that it be mailed to my home address and was told that it would be.  Two weeks later when I made it home and the item had not, I called and requested it be mailed to me.  After a couple of phone calls it was properly identified and I was told once again that it would be mailed to me -- which it still hasn't.  I called again today...at this point a little irritated and requested to speak to the manager, which he wouldn't do at first.  This time the employee requested to charge the shipping charges to my card and when I said no, I thought at this time it should be done as a courtesy the manager finally got on the phone.  He was brusk, unapologetic for never sending the item or calling me back ('it was not his fault he never got the message') and said he would definitely not pay the shipping charges for the item (and I don't trust him to charge me fairly to ship the item).  I told him I would complain to Choice and he accused me of threatening him and hung up on me.  When speaking with Choice hotels I learned that their recommendation is to never allow a hotel to charge you for shipping an item, but to arrange pick-up for it yourself through a shipping company.  As long as you don't actually need to speak to the staff you might have an excellent experience at this hotel -- but I frankly would not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean, breakfast okay, very busy when we were there and understaffed -- often had to wait at the front desk, only one employee working.  The front desk was very nice and helpful.  My problem was really that I accidentally left an item behind.  I realized it several hours after we left, so I called and requested that it be mailed to my home address and was told that it would be.  Two weeks later when I made it home and the item had not, I called and requested it be mailed to me.  After a couple of phone calls it was properly identified and I was told once again that it would be mailed to me -- which it still hasn't.  I called again today...at this point a little irritated and requested to speak to the manager, which he wouldn't do at first.  This time the employee requested to charge the shipping charges to my card and when I said no, I thought at this time it should be done as a courtesy the manager finally got on the phone.  He was brusk, unapologetic for never sending the item or calling me back ('it was not his fault he never got the message') and said he would definitely not pay the shipping charges for the item (and I don't trust him to charge me fairly to ship the item).  I told him I would complain to Choice...The hotel was clean, breakfast okay, very busy when we were there and understaffed -- often had to wait at the front desk, only one employee working.  The front desk was very nice and helpful.  My problem was really that I accidentally left an item behind.  I realized it several hours after we left, so I called and requested that it be mailed to my home address and was told that it would be.  Two weeks later when I made it home and the item had not, I called and requested it be mailed to me.  After a couple of phone calls it was properly identified and I was told once again that it would be mailed to me -- which it still hasn't.  I called again today...at this point a little irritated and requested to speak to the manager, which he wouldn't do at first.  This time the employee requested to charge the shipping charges to my card and when I said no, I thought at this time it should be done as a courtesy the manager finally got on the phone.  He was brusk, unapologetic for never sending the item or calling me back ('it was not his fault he never got the message') and said he would definitely not pay the shipping charges for the item (and I don't trust him to charge me fairly to ship the item).  I told him I would complain to Choice and he accused me of threatening him and hung up on me.  When speaking with Choice hotels I learned that their recommendation is to never allow a hotel to charge you for shipping an item, but to arrange pick-up for it yourself through a shipping company.  As long as you don't actually need to speak to the staff you might have an excellent experience at this hotel -- but I frankly would not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r166344003-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>166344003</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for the first two nights of our holiday to Texas because of it was close to NASA Space Centre. Booking in was easy, the room was clean and the breakfast was good.  The staff were friendly and helpful especially Carlos who thought we were mad to walk from there to the space centre.  Would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r163133645-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>163133645</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, OK location...</t>
+  </si>
+  <si>
+    <t>I stayed here May 31st and the room was a king suite. Easy check in and out. I turned the wall air conditioning to 60 degrees because the air in Webster is so muggy. Nicely appointed room. 32 inch TV flat screen. Average furniture. Study desk. Free WiFi. No room service. Lots of places to order in. 2 blocks to local hospital Clear Lake Regional. Jason's Deli nearby. Room has 4 pillows to bed. Lots of closet space. Mini fridge and microwave. Coffeemaker. Bathroom is clean and toilet is gravity flush. Countertops are simulated granite. Desk has many chips, cookies and sundries you can buy. Full breakfast with eggs, sausage, cereal, coffee, toast, muffins, waffles, yogurt, orange juice, milk, and oatmeal. Room is sort of small. Couch that folds out as a sleeper. Coffee table. Plenty of drawer space for clothing and full sized iron and ironing board. Shower has 6 settings and plenty of hot water. Tub and sink are white as is toilet. Toiletries are shampoo and hand lotion. No extra noise heard outside or between rooms. Parking is adequate. No security guard. Office buildings across the street. Porters for wheeling luggage in and no valet. Large dining area with TV. Large lobby. Indoor pool. Business room with two screens and a printer. Exercise room with treadmills. A business class place. Two phones in the room one at the desk and one at the bed. Elevators. 4 floors....I stayed here May 31st and the room was a king suite. Easy check in and out. I turned the wall air conditioning to 60 degrees because the air in Webster is so muggy. Nicely appointed room. 32 inch TV flat screen. Average furniture. Study desk. Free WiFi. No room service. Lots of places to order in. 2 blocks to local hospital Clear Lake Regional. Jason's Deli nearby. Room has 4 pillows to bed. Lots of closet space. Mini fridge and microwave. Coffeemaker. Bathroom is clean and toilet is gravity flush. Countertops are simulated granite. Desk has many chips, cookies and sundries you can buy. Full breakfast with eggs, sausage, cereal, coffee, toast, muffins, waffles, yogurt, orange juice, milk, and oatmeal. Room is sort of small. Couch that folds out as a sleeper. Coffee table. Plenty of drawer space for clothing and full sized iron and ironing board. Shower has 6 settings and plenty of hot water. Tub and sink are white as is toilet. Toiletries are shampoo and hand lotion. No extra noise heard outside or between rooms. Parking is adequate. No security guard. Office buildings across the street. Porters for wheeling luggage in and no valet. Large dining area with TV. Large lobby. Indoor pool. Business room with two screens and a printer. Exercise room with treadmills. A business class place. Two phones in the room one at the desk and one at the bed. Elevators. 4 floors. Nothing fancy. A solid 4 star experience. They handle a lot of groups in the summer so it could get crowded since NASA is just down the street a mile or so.Hampton Inn and Holiday Inn Express are across the street. Mall is across the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>CmfrtSuits-WebsterTX, General Manager at Comfort Suites Webster, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here May 31st and the room was a king suite. Easy check in and out. I turned the wall air conditioning to 60 degrees because the air in Webster is so muggy. Nicely appointed room. 32 inch TV flat screen. Average furniture. Study desk. Free WiFi. No room service. Lots of places to order in. 2 blocks to local hospital Clear Lake Regional. Jason's Deli nearby. Room has 4 pillows to bed. Lots of closet space. Mini fridge and microwave. Coffeemaker. Bathroom is clean and toilet is gravity flush. Countertops are simulated granite. Desk has many chips, cookies and sundries you can buy. Full breakfast with eggs, sausage, cereal, coffee, toast, muffins, waffles, yogurt, orange juice, milk, and oatmeal. Room is sort of small. Couch that folds out as a sleeper. Coffee table. Plenty of drawer space for clothing and full sized iron and ironing board. Shower has 6 settings and plenty of hot water. Tub and sink are white as is toilet. Toiletries are shampoo and hand lotion. No extra noise heard outside or between rooms. Parking is adequate. No security guard. Office buildings across the street. Porters for wheeling luggage in and no valet. Large dining area with TV. Large lobby. Indoor pool. Business room with two screens and a printer. Exercise room with treadmills. A business class place. Two phones in the room one at the desk and one at the bed. Elevators. 4 floors....I stayed here May 31st and the room was a king suite. Easy check in and out. I turned the wall air conditioning to 60 degrees because the air in Webster is so muggy. Nicely appointed room. 32 inch TV flat screen. Average furniture. Study desk. Free WiFi. No room service. Lots of places to order in. 2 blocks to local hospital Clear Lake Regional. Jason's Deli nearby. Room has 4 pillows to bed. Lots of closet space. Mini fridge and microwave. Coffeemaker. Bathroom is clean and toilet is gravity flush. Countertops are simulated granite. Desk has many chips, cookies and sundries you can buy. Full breakfast with eggs, sausage, cereal, coffee, toast, muffins, waffles, yogurt, orange juice, milk, and oatmeal. Room is sort of small. Couch that folds out as a sleeper. Coffee table. Plenty of drawer space for clothing and full sized iron and ironing board. Shower has 6 settings and plenty of hot water. Tub and sink are white as is toilet. Toiletries are shampoo and hand lotion. No extra noise heard outside or between rooms. Parking is adequate. No security guard. Office buildings across the street. Porters for wheeling luggage in and no valet. Large dining area with TV. Large lobby. Indoor pool. Business room with two screens and a printer. Exercise room with treadmills. A business class place. Two phones in the room one at the desk and one at the bed. Elevators. 4 floors. Nothing fancy. A solid 4 star experience. They handle a lot of groups in the summer so it could get crowded since NASA is just down the street a mile or so.Hampton Inn and Holiday Inn Express are across the street. Mall is across the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r159191222-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>159191222</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent choice pre cruise</t>
+  </si>
+  <si>
+    <t>We stayed here one night before a cruise.  I was a little concerned we we drove up and there were no cars in the parking lot at 4PM on a Saturday.Tonya checked us in and assured us there would me more people there but it was a slow night. We had 2 rooms next door to each other as requested.  The rooms are larger than average and were clean and had everything we needed.We were looking for a good Mexican restaurant and Marshawn (I think that was her name) at the front desk recommended Los Ramirez so we ate there.  I think our dinners were under $6  each and the food and service was excellent.Breakfast was good and plentiful.  The breakfast area was never crowded and the food was always replenished with out having to ask for it.  Good make your own waffles and sausage and gravy.We have stayed in Webster before but had never seen this hotel.  We will stay here again when cruising from Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed here one night before a cruise.  I was a little concerned we we drove up and there were no cars in the parking lot at 4PM on a Saturday.Tonya checked us in and assured us there would me more people there but it was a slow night. We had 2 rooms next door to each other as requested.  The rooms are larger than average and were clean and had everything we needed.We were looking for a good Mexican restaurant and Marshawn (I think that was her name) at the front desk recommended Los Ramirez so we ate there.  I think our dinners were under $6  each and the food and service was excellent.Breakfast was good and plentiful.  The breakfast area was never crowded and the food was always replenished with out having to ask for it.  Good make your own waffles and sausage and gravy.We have stayed in Webster before but had never seen this hotel.  We will stay here again when cruising from Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r157748039-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>157748039</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This place is great.  We were met by Tonya at the front desk as soon as we walked in, she made us feel very welcome.  The hotel was very clean and comfortable. Breakfast was good.  They had cereal, yogurt, eggs, toast, self made waffles, very nice.When in this area again, we will definitely come back to say hi to Tonya.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r157520206-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>157520206</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Week in Webster</t>
+  </si>
+  <si>
+    <t>Just back from a week in Webster and stayed at the Comfort Suites N.Texas Ave.  Had looked at lots of reviews for various hotels and chose this one, having never been to Houston area before.  The hotel was very clean, free parking and free breakfast provided and the hot tub was great.  As other reviewers stated the pool is not heated, so that might be off putting for families.  However I couldn't fault the hotel in any other way. Location was perfect...near Baybrook Mall for lots of great shopping and with loads of places to eat nearby. It was easy to access off the Interstate (junction 26) but really quiet. Only 10 mins to Tanger Outlet shopping and about 30 mins to Galveston beaches, with Kemah Boardwalk even closer...plus NASA is just along the road !!!  Carlos, Tonya and the team couldn't have been nicer, recommending local eateries and even printing off maps to drive there.  Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just back from a week in Webster and stayed at the Comfort Suites N.Texas Ave.  Had looked at lots of reviews for various hotels and chose this one, having never been to Houston area before.  The hotel was very clean, free parking and free breakfast provided and the hot tub was great.  As other reviewers stated the pool is not heated, so that might be off putting for families.  However I couldn't fault the hotel in any other way. Location was perfect...near Baybrook Mall for lots of great shopping and with loads of places to eat nearby. It was easy to access off the Interstate (junction 26) but really quiet. Only 10 mins to Tanger Outlet shopping and about 30 mins to Galveston beaches, with Kemah Boardwalk even closer...plus NASA is just along the road !!!  Carlos, Tonya and the team couldn't have been nicer, recommending local eateries and even printing off maps to drive there.  Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r153545239-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>153545239</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Most Quiet Stay EVER!</t>
+  </si>
+  <si>
+    <t>We stayed one night here before our cruise, leaving out of Galveston.  We chose this hotel because there were no hotels in Galveston available, and the rate here was very reasonable.  It was absolutely the quietest hotel room we've ever had.  They had a young baseball team staying there, but we heard nothing!  It was clean and we had a good night.The only thing that kept this hotel from getting an "Excellent" rating was that the breakfast area was understaffed.  It was evident that they started out with biscuits and gravy as well as bacon, sausage, and scrambled eggs; however, there were no biscuits and only a teaspoon full of eggs left when we arrived downstairs.  My husband notified the desk that the food supply was somewhat depleted and they assured him they'd get some out.  When we left the breakfast area, neither had been refilled.  The remainder of the breakfast options were just fair.  All told, if we take another cruise out of Galveston, we will certainly try to book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We stayed one night here before our cruise, leaving out of Galveston.  We chose this hotel because there were no hotels in Galveston available, and the rate here was very reasonable.  It was absolutely the quietest hotel room we've ever had.  They had a young baseball team staying there, but we heard nothing!  It was clean and we had a good night.The only thing that kept this hotel from getting an "Excellent" rating was that the breakfast area was understaffed.  It was evident that they started out with biscuits and gravy as well as bacon, sausage, and scrambled eggs; however, there were no biscuits and only a teaspoon full of eggs left when we arrived downstairs.  My husband notified the desk that the food supply was somewhat depleted and they assured him they'd get some out.  When we left the breakfast area, neither had been refilled.  The remainder of the breakfast options were just fair.  All told, if we take another cruise out of Galveston, we will certainly try to book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r153085404-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>153085404</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Service superb</t>
+  </si>
+  <si>
+    <t>We were "walked over" to this facility due to an issue at our reserved hotel. The hotel lobby is clean &amp; spacious, and the front desk people are absolutely top notch. While we had never stayed at their hotel before, we were treated as if we were platinum members &amp; VIPs in every way. We were accommodated with their "Executive Suite", which I would assume to be one of their best available rooms. It is a large, um, room. It is not what I would call a true suite. It is a large room, with a small seating area, &amp; one TV for the entire room, across from the bed. In order to see the TV from the seating area, one has to move the unit on the credenza. As far as the "kitchen" area, that consists of a small area with a very small coffee pot, microwave, and "refrigerator", which is smaller than my bar ice maker. The bathroom is the standard motel type shower/tub combo. 
+As this hotel is located on the somewhat busier side of Texas Ave., we did notice quite a bit of traffic noise. Probably because we were unable to sleep. The bed was akin to trying to sleep on a granite countertop. I really hate to complain about a stay in which the cost to me was gratis, but it just was not comfortable enough to even sleep. I would award five stars for...We were "walked over" to this facility due to an issue at our reserved hotel. The hotel lobby is clean &amp; spacious, and the front desk people are absolutely top notch. While we had never stayed at their hotel before, we were treated as if we were platinum members &amp; VIPs in every way. We were accommodated with their "Executive Suite", which I would assume to be one of their best available rooms. It is a large, um, room. It is not what I would call a true suite. It is a large room, with a small seating area, &amp; one TV for the entire room, across from the bed. In order to see the TV from the seating area, one has to move the unit on the credenza. As far as the "kitchen" area, that consists of a small area with a very small coffee pot, microwave, and "refrigerator", which is smaller than my bar ice maker. The bathroom is the standard motel type shower/tub combo. As this hotel is located on the somewhat busier side of Texas Ave., we did notice quite a bit of traffic noise. Probably because we were unable to sleep. The bed was akin to trying to sleep on a granite countertop. I really hate to complain about a stay in which the cost to me was gratis, but it just was not comfortable enough to even sleep. I would award five stars for the customer service, but with the room issues, I would not stay here again. We had decided halfway through the night, that if our reserved hotel was unavailable for a second night, we would just take our chances elsewhere rather than stay at "Comfort" Suites another night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We were "walked over" to this facility due to an issue at our reserved hotel. The hotel lobby is clean &amp; spacious, and the front desk people are absolutely top notch. While we had never stayed at their hotel before, we were treated as if we were platinum members &amp; VIPs in every way. We were accommodated with their "Executive Suite", which I would assume to be one of their best available rooms. It is a large, um, room. It is not what I would call a true suite. It is a large room, with a small seating area, &amp; one TV for the entire room, across from the bed. In order to see the TV from the seating area, one has to move the unit on the credenza. As far as the "kitchen" area, that consists of a small area with a very small coffee pot, microwave, and "refrigerator", which is smaller than my bar ice maker. The bathroom is the standard motel type shower/tub combo. 
+As this hotel is located on the somewhat busier side of Texas Ave., we did notice quite a bit of traffic noise. Probably because we were unable to sleep. The bed was akin to trying to sleep on a granite countertop. I really hate to complain about a stay in which the cost to me was gratis, but it just was not comfortable enough to even sleep. I would award five stars for...We were "walked over" to this facility due to an issue at our reserved hotel. The hotel lobby is clean &amp; spacious, and the front desk people are absolutely top notch. While we had never stayed at their hotel before, we were treated as if we were platinum members &amp; VIPs in every way. We were accommodated with their "Executive Suite", which I would assume to be one of their best available rooms. It is a large, um, room. It is not what I would call a true suite. It is a large room, with a small seating area, &amp; one TV for the entire room, across from the bed. In order to see the TV from the seating area, one has to move the unit on the credenza. As far as the "kitchen" area, that consists of a small area with a very small coffee pot, microwave, and "refrigerator", which is smaller than my bar ice maker. The bathroom is the standard motel type shower/tub combo. As this hotel is located on the somewhat busier side of Texas Ave., we did notice quite a bit of traffic noise. Probably because we were unable to sleep. The bed was akin to trying to sleep on a granite countertop. I really hate to complain about a stay in which the cost to me was gratis, but it just was not comfortable enough to even sleep. I would award five stars for the customer service, but with the room issues, I would not stay here again. We had decided halfway through the night, that if our reserved hotel was unavailable for a second night, we would just take our chances elsewhere rather than stay at "Comfort" Suites another night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r152860048-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>152860048</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Nice Property</t>
+  </si>
+  <si>
+    <t>Stayed here for business for 5 nights.  This is a newer property, clean, and nicely furnished.  Breakfast is standard Comfort Suite fare, but was fresh and hot.  Room was clean and comfortable.  Hotel is located within walking distance to several restaurants. This is a good choice for Webster, TX.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r150420168-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>150420168</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>This is a nice hotel with a very friendly staff, and the breakfast was delicious!  We were greeted like family and the desk staff went out of their way to be helpful.  The manager greeted us at breakfast and made sure that we had everything we needed.  You don’t see that every day!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r150377703-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>150377703</t>
+  </si>
+  <si>
+    <t>Another great Comfort Suites</t>
+  </si>
+  <si>
+    <t>Stayed one night about 2 weeks ago. Exceptionally clean and staff very friendly and always offering to be of help. Rooms very large, bed very comfortable, bath super clean and has extra towels. Breakfast very good and with many options.Can't go wrong with this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r150360165-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>150360165</t>
+  </si>
+  <si>
+    <t>Very Clean, Great Price</t>
+  </si>
+  <si>
+    <t>Stayed here two nights. The room was very clean and the bed was very comfortable. The airconditioner/heater worked very well and wasn't too loud.We travel with our dog, and this is a pet friendly hotel.Would have given 5 stars but the water in the shower was okay hot but not as hot as I would have liked it and the free wi-fi didn't work at peak times because too many people using it for the band width they had.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r149017513-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>149017513</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>"Best 5th grade sleepover EVER"</t>
+  </si>
+  <si>
+    <t>I must tell you about my AMAZING experience last night. Another mother and I chaparoned my daughter's 5th grade birthday party at Comfort Suites in a 2 room suite and the fun, and service, never stopped! For 2 months I had the party planned out because a winter party activites have many obstacles such as holidays and weather. Each conversation I had with the manager or employees resulted in me becoming more and more impressed with the "customer first" approach. With our house being small and no heated pool in the neighborhood, a pool party or sleepover would just be out of the question during Christmas break. But at Comfort Suites we enjoyed a spectacular indoor pool experience and the convenience of extra room for sleeping and activities. Tonya, the hotel attendant, is a true angel. She anticipated all of our needs and was so sweet and helpful. She brought extra towels to the pool and activated the spa without me even asking. She provided us with the best service that i have ever experienced! It almost seemed like she was part of our party. The girls all loved her. She cleaned up after all of our messes and offered the large breakfast/tv area for us to open gifts and set up for our pizza dinner. She even found a lighter for us so that we could light the 11 birthday candles. In the morning, Tonya had the kitchen looking...I must tell you about my AMAZING experience last night. Another mother and I chaparoned my daughter's 5th grade birthday party at Comfort Suites in a 2 room suite and the fun, and service, never stopped! For 2 months I had the party planned out because a winter party activites have many obstacles such as holidays and weather. Each conversation I had with the manager or employees resulted in me becoming more and more impressed with the "customer first" approach. With our house being small and no heated pool in the neighborhood, a pool party or sleepover would just be out of the question during Christmas break. But at Comfort Suites we enjoyed a spectacular indoor pool experience and the convenience of extra room for sleeping and activities. Tonya, the hotel attendant, is a true angel. She anticipated all of our needs and was so sweet and helpful. She brought extra towels to the pool and activated the spa without me even asking. She provided us with the best service that i have ever experienced! It almost seemed like she was part of our party. The girls all loved her. She cleaned up after all of our messes and offered the large breakfast/tv area for us to open gifts and set up for our pizza dinner. She even found a lighter for us so that we could light the 11 birthday candles. In the morning, Tonya had the kitchen looking beautiful and fully stocked waiting for us all to make waffles. She even poured the mix for the girls! As tired and we all were this morning from the all night fun, she looked so fresh and as professional as she did when we checked in at 3pm the day before. The kids all said that this was the "the Best 5th grade sleepover Ever!" The parents came to pick up their children by 10am and were so impressed by the hotel that they, too, want to book reservations for staycations instead of leaving the city to vacation. Some didn't realize that the hotel was even there and other parents said that Comfort Suites is so clean and beautiful. Everyone was impressed with Tonya and the hotel. I can't thank you enough for providing such incredible service!Sincerely,Kirsten LewMoreShow less</t>
+  </si>
+  <si>
+    <t>I must tell you about my AMAZING experience last night. Another mother and I chaparoned my daughter's 5th grade birthday party at Comfort Suites in a 2 room suite and the fun, and service, never stopped! For 2 months I had the party planned out because a winter party activites have many obstacles such as holidays and weather. Each conversation I had with the manager or employees resulted in me becoming more and more impressed with the "customer first" approach. With our house being small and no heated pool in the neighborhood, a pool party or sleepover would just be out of the question during Christmas break. But at Comfort Suites we enjoyed a spectacular indoor pool experience and the convenience of extra room for sleeping and activities. Tonya, the hotel attendant, is a true angel. She anticipated all of our needs and was so sweet and helpful. She brought extra towels to the pool and activated the spa without me even asking. She provided us with the best service that i have ever experienced! It almost seemed like she was part of our party. The girls all loved her. She cleaned up after all of our messes and offered the large breakfast/tv area for us to open gifts and set up for our pizza dinner. She even found a lighter for us so that we could light the 11 birthday candles. In the morning, Tonya had the kitchen looking...I must tell you about my AMAZING experience last night. Another mother and I chaparoned my daughter's 5th grade birthday party at Comfort Suites in a 2 room suite and the fun, and service, never stopped! For 2 months I had the party planned out because a winter party activites have many obstacles such as holidays and weather. Each conversation I had with the manager or employees resulted in me becoming more and more impressed with the "customer first" approach. With our house being small and no heated pool in the neighborhood, a pool party or sleepover would just be out of the question during Christmas break. But at Comfort Suites we enjoyed a spectacular indoor pool experience and the convenience of extra room for sleeping and activities. Tonya, the hotel attendant, is a true angel. She anticipated all of our needs and was so sweet and helpful. She brought extra towels to the pool and activated the spa without me even asking. She provided us with the best service that i have ever experienced! It almost seemed like she was part of our party. The girls all loved her. She cleaned up after all of our messes and offered the large breakfast/tv area for us to open gifts and set up for our pizza dinner. She even found a lighter for us so that we could light the 11 birthday candles. In the morning, Tonya had the kitchen looking beautiful and fully stocked waiting for us all to make waffles. She even poured the mix for the girls! As tired and we all were this morning from the all night fun, she looked so fresh and as professional as she did when we checked in at 3pm the day before. The kids all said that this was the "the Best 5th grade sleepover Ever!" The parents came to pick up their children by 10am and were so impressed by the hotel that they, too, want to book reservations for staycations instead of leaving the city to vacation. Some didn't realize that the hotel was even there and other parents said that Comfort Suites is so clean and beautiful. Everyone was impressed with Tonya and the hotel. I can't thank you enough for providing such incredible service!Sincerely,Kirsten LewMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r148825085-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>148825085</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Most comfortable beds</t>
+  </si>
+  <si>
+    <t>Great value, really comfortable bed, indoor spa open till late, close to mall and lots of dinner options. Highly recommended. Really helpful receptionist on check-in, gave good advice and was ready to assist and book our next stay for us too. Good breakfast choices available in the morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r148156771-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>148156771</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>friendly service and good price.</t>
+  </si>
+  <si>
+    <t>arrived into Webster and found the comfort suites. Walked in and asked about rates and the rates given were excellent so decided to stay there for two days. The front desk person named Carlos was excellent and helped us on our trip. The rooms were clean but the closet door was broken when we entered our room. Other than that it was an excellent stay and the breakfast was very good. Ate for free each morning. I recommend this location of Comfort Suites because of customer service, cleaniness and location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r146614410-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>146614410</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel . we loved it!</t>
+  </si>
+  <si>
+    <t>We found this hotel to be top notch.  We had been coming to texas for four years and stayed at  different hotel. then decided to try comfort  suites. We loved it. Very clean,quiet, And well run hotel.   the food was wonderful. And room  maid service was top notch.  Right down to the smiley face at the front desk  that greeted us every night when we returned  to the hotel. We even used the guest laundry that is available for guest to do them selves.It feels good to go home with clean close and just put them away when get home. That is wonderful!!. Thank for the wonderful stay.We definitely will back next year!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We found this hotel to be top notch.  We had been coming to texas for four years and stayed at  different hotel. then decided to try comfort  suites. We loved it. Very clean,quiet, And well run hotel.   the food was wonderful. And room  maid service was top notch.  Right down to the smiley face at the front desk  that greeted us every night when we returned  to the hotel. We even used the guest laundry that is available for guest to do them selves.It feels good to go home with clean close and just put them away when get home. That is wonderful!!. Thank for the wonderful stay.We definitely will back next year!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r146185986-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>146185986</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>Janeva and Carlos made our stay great. We were in to visit our grandson in the hospital, we stayed 3 nights. Room was clean as was the rest of the hotel. If we have to stay in the Houston area again this will be our first choice.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r146152806-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>146152806</t>
+  </si>
+  <si>
+    <t>Mensahs</t>
+  </si>
+  <si>
+    <t>The hotel has excellent staff.  Each one is very friendly, curteous, and very knowledgeable about the hotel amenities and the city.  The staff was also helpful with recommendations for dining and shopping.  Shopping centers are right down the street from the hotel.  The hotel has large sunny rooms.  Of course the rooms can be darkened with the window curtains if needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r144767887-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>144767887</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and Convenient to Everything</t>
+  </si>
+  <si>
+    <t>Comfortable and nice staff. The breakfast could have been a little better but was good considering how that go's for hotel breakfast offerings. I stayed on the 3rd floor and it was quiet. The room was well maintained and clean. It was larger than most with plenty of eletrical outlets. I had a suite the first night and a regular room for two days after. The suite was the only room available when I got there without reservations. Try to make reservations if possible.There are many resturants nearby and the Clearlake Hospital is very close if you need to visit someone. This is why I was there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r144697242-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>144697242</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Comfort Suites in Webster.  Carlos took our reservation by phone.  He was very courteous and friendly and gave us a great rate.  The hotel was spotlessly clean as always.  This is our favorite hotel on the way to Galveston.  Carlos also assisted many guests in the breakfast area.  He excels at customer service!  Stay here; you will not regret it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r144040495-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>144040495</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Wings Over Houston</t>
+  </si>
+  <si>
+    <t>Hotel is nice and well equipped.  Everything was clean and well maintained.  The staff was helpful and courteous.  Breakfast one morning had some type of "egg" that looked like a saucer and was very unappetizing to look at.  They looked like they had been removed from Egg McMuffins, and had been there for awhile. Due to that aspect, I refrained from tempting the fate of my stomach.  The following morning, something more identifiable as scrambled eggs were served.  The shampoo provided was less than appealing and there was an extremely limited selection of channels on the cable TV.  Overall, a nice place to stay if you're not planning on spending a lot of time in the room or take breakfast there.  Only 3 floors to this hotel, and it undoubtedly has the slowest elevator in the state.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Hotel is nice and well equipped.  Everything was clean and well maintained.  The staff was helpful and courteous.  Breakfast one morning had some type of "egg" that looked like a saucer and was very unappetizing to look at.  They looked like they had been removed from Egg McMuffins, and had been there for awhile. Due to that aspect, I refrained from tempting the fate of my stomach.  The following morning, something more identifiable as scrambled eggs were served.  The shampoo provided was less than appealing and there was an extremely limited selection of channels on the cable TV.  Overall, a nice place to stay if you're not planning on spending a lot of time in the room or take breakfast there.  Only 3 floors to this hotel, and it undoubtedly has the slowest elevator in the state.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r142074212-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>142074212</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Just the basics for the right cost</t>
+  </si>
+  <si>
+    <t>Had a recent one night stay. All desk personnel were helpful and friendly especially the night desk gentleman. The rooms are simple and clean and pretty dated but comfortable. Godd room at a good cost</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r139599757-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>139599757</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Our first home during relocation to Houston</t>
+  </si>
+  <si>
+    <t>Where to begin! The staff and owners were nothing but helpful to my husband and I. We had just relocated to Houston. The staff gave us recommedations for realtors. The hotel is perfectly located, well kept, and just friendly! Moving is the most nerve racking thing especially when moving all the way from Alaska. The staff made us feel right at home and we were so thankful for that. They have a full breakfast available that actually tasted really good vs. other hotels. The hotel was really clean and quiet at night. Our room had a mini fridge and microwave when you are temporarly looking for your home, and laundry facilities available.Thank you Comfort Suites for giving us such a great begining to our life in Houston! Also our pets thank you too!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to begin! The staff and owners were nothing but helpful to my husband and I. We had just relocated to Houston. The staff gave us recommedations for realtors. The hotel is perfectly located, well kept, and just friendly! Moving is the most nerve racking thing especially when moving all the way from Alaska. The staff made us feel right at home and we were so thankful for that. They have a full breakfast available that actually tasted really good vs. other hotels. The hotel was really clean and quiet at night. Our room had a mini fridge and microwave when you are temporarly looking for your home, and laundry facilities available.Thank you Comfort Suites for giving us such a great begining to our life in Houston! Also our pets thank you too!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r138370210-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>138370210</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Stayed here for a mini family vacation with hubby and daughter and it was great.  Really good location with plenty of options surrounding you whether its eating or entertainment.  We were going to Schliterbahn and Kemah which was not far at all from the hotel...about a 20 min drive.  There is also Main Event nearby, which was great for my daughter because she loves Laser Tag.  There is an indoor pool and our room was right across from it, and I can say that there was not much noise.  The front desk staff was very friendly and professional.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r137909773-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>137909773</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>So nice to work with!</t>
+  </si>
+  <si>
+    <t>We booked a block of rooms for guests for our daughter's wedding.  Raj, the owner, was by far the best person to work with among all of the hotels in the area.  Rechell was a gem working with the guests coming in very late due to delayed flights.  Lots of fun family time during the day in the nice breakfast area.  Very clean!  Beds are comfortable, but high.  If you have elderly folks, this is challenging.  No hesitation recommending this hotel!!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r137773712-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>137773712</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Space center here we come!</t>
+  </si>
+  <si>
+    <t>This is a nice property that is extremely close to Space Center Houston.  The room was spacious and breakfast was good.  We stay at a lot of Comfort Suites as we travel around Texas for family fun.  The carpets in the common areas are getting a bit stained and some of the paint in our room was sloppy, but overall, it was a good night's sleep in a good location at a good price.  We'll likely stay here again since the kids loved the Space Center.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r137770643-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>137770643</t>
+  </si>
+  <si>
+    <t>Nice Accomidations!</t>
+  </si>
+  <si>
+    <t>Myself and another family spent the night for a girl's slumber party.  Between the 2 rooms, we had plenty of room and everyone had a bed.  Enjoyed pizza dinner and birthday cake at the breakfast area, the area was big enough for the kids and we cleaned really good for breakfast the next morning.  Speaking of breakfast, the lady working the area was very pleasant and cheerful and accomidating when items were running out.  We walked away full, the selection was great.  The pool was cold!   BURR!  I would not get in it, but it didn't stop all the kids.  When you walk into this hotel, it is as if you are walking into a grand ball room!  Very, very nice.  Will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myself and another family spent the night for a girl's slumber party.  Between the 2 rooms, we had plenty of room and everyone had a bed.  Enjoyed pizza dinner and birthday cake at the breakfast area, the area was big enough for the kids and we cleaned really good for breakfast the next morning.  Speaking of breakfast, the lady working the area was very pleasant and cheerful and accomidating when items were running out.  We walked away full, the selection was great.  The pool was cold!   BURR!  I would not get in it, but it didn't stop all the kids.  When you walk into this hotel, it is as if you are walking into a grand ball room!  Very, very nice.  Will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r136561122-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>136561122</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>One of the Friendliest places to stay in Webster (Houston) area.</t>
+  </si>
+  <si>
+    <t>I was in the area working and having a hard time finding a nice reasonably priced hotel to stay in. I had stayed in a couple of hotels in the area, but neither were ideal.I happened to hear about this place through an associate from the local office and thought I would give it a try. It was a very nice surprise! No charge for breakfast, actually had an assortment of eggs, biscuits and gravy, fruits, cereal and oatmeal. Oh yes, full strength apple and orange juice not watered down like a lot of other places seem to do.The best part of staying here was having the pleasure or meeting Rechell. She worked with me on some corporate matters and is as friendly and caring as they come. Thanks Rechell!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in the area working and having a hard time finding a nice reasonably priced hotel to stay in. I had stayed in a couple of hotels in the area, but neither were ideal.I happened to hear about this place through an associate from the local office and thought I would give it a try. It was a very nice surprise! No charge for breakfast, actually had an assortment of eggs, biscuits and gravy, fruits, cereal and oatmeal. Oh yes, full strength apple and orange juice not watered down like a lot of other places seem to do.The best part of staying here was having the pleasure or meeting Rechell. She worked with me on some corporate matters and is as friendly and caring as they come. Thanks Rechell!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r136465221-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>136465221</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Rechell made the place great!!</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy, Rechell at the front desk was super nice. The room was very spacious. When we started to go to bed we noticed there was not any bedding for the sofa bed, we went to call the front and neither phone in the room was working ( one was really dirty and looked like it had been out of commission a long time! ) so we went to the front desk and the nice young man gave us the bedding. I mentioned the phone issue to him and he said he would let someone know but yet he never asked for our room number so I doubt that happens.Breakfast was good, lots of room to sit. Again at check out Rechell was super nice. The hotel itself is good, but she is what makes it great! We would definately stay here again when we are in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy, Rechell at the front desk was super nice. The room was very spacious. When we started to go to bed we noticed there was not any bedding for the sofa bed, we went to call the front and neither phone in the room was working ( one was really dirty and looked like it had been out of commission a long time! ) so we went to the front desk and the nice young man gave us the bedding. I mentioned the phone issue to him and he said he would let someone know but yet he never asked for our room number so I doubt that happens.Breakfast was good, lots of room to sit. Again at check out Rechell was super nice. The hotel itself is good, but she is what makes it great! We would definately stay here again when we are in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r136339561-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>136339561</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>This Place is Top Notch thanks to Rechell Day Shift Front Desk</t>
+  </si>
+  <si>
+    <t>My wife &amp; I had planned an intimate evening in one of the King Bed Jacuzzi Suites available at Comfort Suites - Webster, TX. Rachelle - the Day Shift Front Desk Manager was so helpful in allowing us to check in to the first available Suite - this was very helpful, and allowed us more time to plan for "essentials" - Thank You Rachelle</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r135925108-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>135925108</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Family Reunion 6/28-7/2</t>
+  </si>
+  <si>
+    <t>Clean Hotel. Friendly Staff. They serve  the usual Hotel complimentary breakfast Which is very convenient for feeding kids, Seniors, or just having to leave on a early morning Tour. (Waffles (you make), eggs, Sausage, Bagels/cream cheese, Toast/Jelly, Cold Cereal, Fresh Fruit, Coffee &amp;  Tea.  Ladies it's close to shopping malls!!!Yes, I would stay there again.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r135003582-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>135003582</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Very clean! Great service!</t>
+  </si>
+  <si>
+    <t>Thanks to Rechell at the front desk for helping with everything! This hotel has brand new mattresses, updated baths and fresh paint. Everyone here works very hard to please the guests!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r134811382-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>134811382</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Good Comfort Suites - on par with others</t>
+  </si>
+  <si>
+    <t>I appreciate a clean hotel and this one is spotless. They were even replacing mattresses upon my arrival. Comfort Suites has been improving their brand for quite some time and this hotel is no exception. Bed was firm, but relatively comfortable. Good quality linens. Numerous power and USB outlets at the desk. I was surprised that there were no convenient power outlets bedside, but it was easy to work around. The breakfast selection was good as well. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r132193211-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>132193211</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Great Customer Service!!</t>
+  </si>
+  <si>
+    <t>My family and I travelled six hours to Webster for a memorial service and was welcomed with professionalism and courtesy. Rechell is multi-tasked and efficient at many things. She handled many customer requests and inquiries within minutes. She did an outstanding job in representing Comfort  Suites. My family and I will always search for  Comfort Suites when vacating or travelling. The rooms were spacious and clean. Breakfast was fantastic. The entire experience made our time of grief less painful. More are needed like Rechelle.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r131710407-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>131710407</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Arrived right behind three other couples, but Rechell had us all checked in and off to our rooms in minutes.  The room itself was spacious and very clean.  Room was so quiet, we didn't know the other rooms were occupied.  Breakfast is one of the best free ones you'll find.  The breakfast room is large with lots of seating.  Did laundry while we were here and the laundromat was spotless.  High speed in room WiFi was excellent.  Lots of restaurants close by.  Very convenient for Johnson Space Center.  Excellent hotel, excellent staff, excellent value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r131352686-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>131352686</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>Great Employee named Rechell</t>
+  </si>
+  <si>
+    <t>I stayed three nights and found all of the amenities that a 4-star hotel would have.Great breakfast and very friendly personnel.Rechell, the front desk employee, was excellent, efficient and did an outstanding job on the front desk.  A very outgoing young lady with a smile to let you know that she will take care of you and any problems that you may have as a guest at the Comfort Suites.I will stay there again when I am in the area.  Rochell, thanks for your smile and efficiency.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r130742930-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>130742930</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>Welcome was the smile and excellent customer service of Rechelle@Front Desk she is outstanding. I would like to thank the staff at Comfort Inn  Webster,Texas .  I stayed 2 nights and enjoyed every moment very large room and so quiet. All teammembers was so helpful and nice. Breakfast was delicious,and so much food to choose from, a very clean hotel. I knew i was in good hands by Rochelle outstanding personality. I will recommend this hotel to my family and friends. I will be returning  to stay, or just come by Comfort Inn to say hello, because everyone staffed was awesome especially Rechell Irby, Thanks again~I will be back!!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r130694793-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>130694793</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Webster Weekend</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights with my wife and small dog this weekend.  When I arrived at the front desk I was greeted by Rechell and she confirmed my reservation and my room was available and provided some good information on the hotel.  Unfortunately it did not show I was travelling with a pet and all the pet rooms were booked.  Rechell was quickly able to get approval from her supervisor to allow us to stay in our existing room with the same pet rate.  That was a big relief and a really big thanks to all the staff who were friendly and inviting.  The hotel is in a great location next to some really good eateries and shopping as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights with my wife and small dog this weekend.  When I arrived at the front desk I was greeted by Rechell and she confirmed my reservation and my room was available and provided some good information on the hotel.  Unfortunately it did not show I was travelling with a pet and all the pet rooms were booked.  Rechell was quickly able to get approval from her supervisor to allow us to stay in our existing room with the same pet rate.  That was a big relief and a really big thanks to all the staff who were friendly and inviting.  The hotel is in a great location next to some really good eateries and shopping as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r130625290-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>130625290</t>
+  </si>
+  <si>
+    <t>05/26/2012</t>
+  </si>
+  <si>
+    <t>Wow Rechell went above and beyond her dutys to help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was super clean and all the staff was very helpful. Rechell made sure we knew every thing about the hotel and every thing they offered. I can say this was the first time that has ever happened   I will be back again and again. If you ever get the chance I highly recommend this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r119811794-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>119811794</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Front Desk Staff</t>
+  </si>
+  <si>
+    <t>While looking for a hotel, I stopped by the Comfort Suites in Webster, TX. There I meet a young lady Ms. Keke, who told about the hotel, and made me feel good about staying there. Without her great comments about this hotel I would have not picked it.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r116324790-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>116324790</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>For the price - pretty nice place...</t>
+  </si>
+  <si>
+    <t>My family &amp; I are here as I write this review.  The room we are in on the 2nd floor is a king suite with a fold out sofa for $89./night. It is clean - the bed is pretty comfortable.  We had to ask for the linens and pillows for the fold out sofa.  The bathroom is clean, as is the refrigerator and microwave.  The king bed is partitioned off from the sofa by a half-wall that has open storage-type cubes on top. There is a standard size desk and plenty of lamps.  Very large room. Pleasant artwork on the walls.  The indoor pool is NOT heated, so be prepared for the shock of your life if you jump in! :)  The hot tub/jacuzzi could stand to be a little hotter.  We are looking forward to the FREE HOT breakfast in the a.m. that serves al your basic continental breakfast items, plus bacon, sausage, waffles, egg/omelets, and biscuits &amp; gravy!! YUMMY!  Hope it's as good as it sounds!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My family &amp; I are here as I write this review.  The room we are in on the 2nd floor is a king suite with a fold out sofa for $89./night. It is clean - the bed is pretty comfortable.  We had to ask for the linens and pillows for the fold out sofa.  The bathroom is clean, as is the refrigerator and microwave.  The king bed is partitioned off from the sofa by a half-wall that has open storage-type cubes on top. There is a standard size desk and plenty of lamps.  Very large room. Pleasant artwork on the walls.  The indoor pool is NOT heated, so be prepared for the shock of your life if you jump in! :)  The hot tub/jacuzzi could stand to be a little hotter.  We are looking forward to the FREE HOT breakfast in the a.m. that serves al your basic continental breakfast items, plus bacon, sausage, waffles, egg/omelets, and biscuits &amp; gravy!! YUMMY!  Hope it's as good as it sounds!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d635088-r107270299-Comfort_Suites_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>107270299</t>
+  </si>
+  <si>
+    <t>05/07/2011</t>
+  </si>
+  <si>
+    <t>Not a bad hotel for the price, staff was great</t>
+  </si>
+  <si>
+    <t>We came to this hotel sight unseen, and it was a pleasant surprise.The lobby and rooms appear to have been updated recently (I forgot to ask, but the place looked good) The night staff was absolutely great, and our room was modern and very clean and quiet. We paid $76 for the room for one night, not horrible for the area and the ease of access to local freeways is a great plus. I would stay here again for sure.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2437,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2469,6291 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>179</v>
+      </c>
+      <c r="X23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>179</v>
+      </c>
+      <c r="X24" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>179</v>
+      </c>
+      <c r="X25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>223</v>
+      </c>
+      <c r="X26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>269</v>
+      </c>
+      <c r="X33" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>315</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>316</v>
+      </c>
+      <c r="X38" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>339</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>354</v>
+      </c>
+      <c r="X44" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>368</v>
+      </c>
+      <c r="X46" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
+        <v>375</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>377</v>
+      </c>
+      <c r="X47" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>381</v>
+      </c>
+      <c r="J48" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s">
+        <v>383</v>
+      </c>
+      <c r="L48" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>385</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>391</v>
+      </c>
+      <c r="X49" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" t="s">
+        <v>396</v>
+      </c>
+      <c r="K50" t="s">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s">
+        <v>398</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>399</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>408</v>
+      </c>
+      <c r="J52" t="s">
+        <v>409</v>
+      </c>
+      <c r="K52" t="s">
+        <v>410</v>
+      </c>
+      <c r="L52" t="s">
+        <v>411</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s">
+        <v>208</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" t="s">
+        <v>420</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>428</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>435</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>428</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" t="s">
+        <v>444</v>
+      </c>
+      <c r="K58" t="s">
+        <v>445</v>
+      </c>
+      <c r="L58" t="s">
+        <v>446</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>447</v>
+      </c>
+      <c r="O58" t="s">
+        <v>222</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>448</v>
+      </c>
+      <c r="X58" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>452</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s">
+        <v>208</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+      <c r="J60" t="s">
+        <v>460</v>
+      </c>
+      <c r="K60" t="s">
+        <v>461</v>
+      </c>
+      <c r="L60" t="s">
+        <v>462</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>463</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>465</v>
+      </c>
+      <c r="J61" t="s">
+        <v>466</v>
+      </c>
+      <c r="K61" t="s">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>463</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>475</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>478</v>
+      </c>
+      <c r="J63" t="s">
+        <v>479</v>
+      </c>
+      <c r="K63" t="s">
+        <v>480</v>
+      </c>
+      <c r="L63" t="s">
+        <v>481</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>482</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>484</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>485</v>
+      </c>
+      <c r="J64" t="s">
+        <v>486</v>
+      </c>
+      <c r="K64" t="s">
+        <v>487</v>
+      </c>
+      <c r="L64" t="s">
+        <v>488</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>475</v>
+      </c>
+      <c r="O64" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>489</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>490</v>
+      </c>
+      <c r="J65" t="s">
+        <v>491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>492</v>
+      </c>
+      <c r="L65" t="s">
+        <v>493</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" t="s">
+        <v>222</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>494</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>495</v>
+      </c>
+      <c r="J66" t="s">
+        <v>491</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s">
+        <v>497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>482</v>
+      </c>
+      <c r="O66" t="s">
+        <v>222</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>499</v>
+      </c>
+      <c r="J67" t="s">
+        <v>491</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>503</v>
+      </c>
+      <c r="J68" t="s">
+        <v>504</v>
+      </c>
+      <c r="K68" t="s">
+        <v>505</v>
+      </c>
+      <c r="L68" t="s">
+        <v>506</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s">
+        <v>208</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>508</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>509</v>
+      </c>
+      <c r="J69" t="s">
+        <v>510</v>
+      </c>
+      <c r="K69" t="s">
+        <v>511</v>
+      </c>
+      <c r="L69" t="s">
+        <v>512</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>513</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>514</v>
+      </c>
+      <c r="J70" t="s">
+        <v>515</v>
+      </c>
+      <c r="K70" t="s">
+        <v>516</v>
+      </c>
+      <c r="L70" t="s">
+        <v>517</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>518</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>519</v>
+      </c>
+      <c r="J71" t="s">
+        <v>520</v>
+      </c>
+      <c r="K71" t="s">
+        <v>521</v>
+      </c>
+      <c r="L71" t="s">
+        <v>522</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>523</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>525</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>526</v>
+      </c>
+      <c r="J72" t="s">
+        <v>527</v>
+      </c>
+      <c r="K72" t="s">
+        <v>528</v>
+      </c>
+      <c r="L72" t="s">
+        <v>529</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>530</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>527</v>
+      </c>
+      <c r="K73" t="s">
+        <v>533</v>
+      </c>
+      <c r="L73" t="s">
+        <v>534</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>530</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>536</v>
+      </c>
+      <c r="J74" t="s">
+        <v>537</v>
+      </c>
+      <c r="K74" t="s">
+        <v>538</v>
+      </c>
+      <c r="L74" t="s">
+        <v>539</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>530</v>
+      </c>
+      <c r="O74" t="s">
+        <v>147</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>540</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>541</v>
+      </c>
+      <c r="J75" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" t="s">
+        <v>543</v>
+      </c>
+      <c r="L75" t="s">
+        <v>544</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>545</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>546</v>
+      </c>
+      <c r="J76" t="s">
+        <v>547</v>
+      </c>
+      <c r="K76" t="s">
+        <v>548</v>
+      </c>
+      <c r="L76" t="s">
+        <v>549</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>550</v>
+      </c>
+      <c r="O76" t="s">
+        <v>208</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>552</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>553</v>
+      </c>
+      <c r="J77" t="s">
+        <v>554</v>
+      </c>
+      <c r="K77" t="s">
+        <v>555</v>
+      </c>
+      <c r="L77" t="s">
+        <v>556</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>557</v>
+      </c>
+      <c r="O77" t="s">
+        <v>208</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>558</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>559</v>
+      </c>
+      <c r="J78" t="s">
+        <v>560</v>
+      </c>
+      <c r="K78" t="s">
+        <v>561</v>
+      </c>
+      <c r="L78" t="s">
+        <v>562</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>557</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>564</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>565</v>
+      </c>
+      <c r="J79" t="s">
+        <v>566</v>
+      </c>
+      <c r="K79" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" t="s">
+        <v>567</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>568</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>569</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>570</v>
+      </c>
+      <c r="J80" t="s">
+        <v>571</v>
+      </c>
+      <c r="K80" t="s">
+        <v>572</v>
+      </c>
+      <c r="L80" t="s">
+        <v>573</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>574</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>575</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>576</v>
+      </c>
+      <c r="J81" t="s">
+        <v>577</v>
+      </c>
+      <c r="K81" t="s">
+        <v>578</v>
+      </c>
+      <c r="L81" t="s">
+        <v>579</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>574</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>580</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>581</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s">
+        <v>583</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
+        <v>208</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>585</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>586</v>
+      </c>
+      <c r="J83" t="s">
+        <v>587</v>
+      </c>
+      <c r="K83" t="s">
+        <v>588</v>
+      </c>
+      <c r="L83" t="s">
+        <v>589</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>574</v>
+      </c>
+      <c r="O83" t="s">
+        <v>222</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>591</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>592</v>
+      </c>
+      <c r="J84" t="s">
+        <v>593</v>
+      </c>
+      <c r="K84" t="s">
+        <v>594</v>
+      </c>
+      <c r="L84" t="s">
+        <v>595</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>574</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>597</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>598</v>
+      </c>
+      <c r="J85" t="s">
+        <v>599</v>
+      </c>
+      <c r="K85" t="s">
+        <v>600</v>
+      </c>
+      <c r="L85" t="s">
+        <v>601</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>574</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>602</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>603</v>
+      </c>
+      <c r="J86" t="s">
+        <v>604</v>
+      </c>
+      <c r="K86" t="s">
+        <v>605</v>
+      </c>
+      <c r="L86" t="s">
+        <v>606</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>607</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>608</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>609</v>
+      </c>
+      <c r="J87" t="s">
+        <v>610</v>
+      </c>
+      <c r="K87" t="s">
+        <v>611</v>
+      </c>
+      <c r="L87" t="s">
+        <v>612</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>568</v>
+      </c>
+      <c r="O87" t="s">
+        <v>208</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>613</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>614</v>
+      </c>
+      <c r="J88" t="s">
+        <v>615</v>
+      </c>
+      <c r="K88" t="s">
+        <v>616</v>
+      </c>
+      <c r="L88" t="s">
+        <v>617</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>568</v>
+      </c>
+      <c r="O88" t="s">
+        <v>222</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>618</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>619</v>
+      </c>
+      <c r="J89" t="s">
+        <v>620</v>
+      </c>
+      <c r="K89" t="s">
+        <v>621</v>
+      </c>
+      <c r="L89" t="s">
+        <v>622</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>607</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>624</v>
+      </c>
+      <c r="J90" t="s">
+        <v>625</v>
+      </c>
+      <c r="K90" t="s">
+        <v>259</v>
+      </c>
+      <c r="L90" t="s">
+        <v>626</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>607</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>627</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>628</v>
+      </c>
+      <c r="J91" t="s">
+        <v>629</v>
+      </c>
+      <c r="K91" t="s">
+        <v>630</v>
+      </c>
+      <c r="L91" t="s">
+        <v>631</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>607</v>
+      </c>
+      <c r="O91" t="s">
+        <v>208</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>632</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>633</v>
+      </c>
+      <c r="J92" t="s">
+        <v>634</v>
+      </c>
+      <c r="K92" t="s">
+        <v>635</v>
+      </c>
+      <c r="L92" t="s">
+        <v>636</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>637</v>
+      </c>
+      <c r="O92" t="s">
+        <v>147</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>638</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>639</v>
+      </c>
+      <c r="J93" t="s">
+        <v>640</v>
+      </c>
+      <c r="K93" t="s">
+        <v>641</v>
+      </c>
+      <c r="L93" t="s">
+        <v>642</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>637</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>644</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>645</v>
+      </c>
+      <c r="J94" t="s">
+        <v>646</v>
+      </c>
+      <c r="K94" t="s">
+        <v>647</v>
+      </c>
+      <c r="L94" t="s">
+        <v>648</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>649</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>650</v>
+      </c>
+      <c r="J95" t="s">
+        <v>651</v>
+      </c>
+      <c r="K95" t="s">
+        <v>652</v>
+      </c>
+      <c r="L95" t="s">
+        <v>653</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>654</v>
+      </c>
+      <c r="O95" t="s">
+        <v>222</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>655</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>656</v>
+      </c>
+      <c r="J96" t="s">
+        <v>657</v>
+      </c>
+      <c r="K96" t="s">
+        <v>658</v>
+      </c>
+      <c r="L96" t="s">
+        <v>659</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>660</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>55083</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>662</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>663</v>
+      </c>
+      <c r="J97" t="s">
+        <v>664</v>
+      </c>
+      <c r="K97" t="s">
+        <v>665</v>
+      </c>
+      <c r="L97" t="s">
+        <v>666</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>667</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
